--- a/Coder Army Sheet.xlsx
+++ b/Coder Army Sheet.xlsx
@@ -2735,10 +2735,10 @@
   <dimension ref="A1:E746"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E23" activeCellId="0" sqref="E23"/>
+      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="62.88"/>
@@ -2958,7 +2958,7 @@
         <v>3</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2975,7 +2975,7 @@
         <v>3</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3060,7 +3060,7 @@
         <v>4</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Coder Army Sheet.xlsx
+++ b/Coder Army Sheet.xlsx
@@ -2734,11 +2734,11 @@
   </sheetPr>
   <dimension ref="A1:E746"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A45" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B58" activeCellId="0" sqref="B58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="62.88"/>
@@ -3577,7 +3577,7 @@
         <v>15</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3594,7 +3594,7 @@
         <v>15</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3611,7 +3611,7 @@
         <v>15</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3696,7 +3696,7 @@
         <v>16</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3747,7 +3747,7 @@
         <v>17</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Coder Army Sheet.xlsx
+++ b/Coder Army Sheet.xlsx
@@ -2734,11 +2734,11 @@
   </sheetPr>
   <dimension ref="A1:E746"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A45" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B58" activeCellId="0" sqref="B58"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A20" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="62.88"/>
@@ -2907,7 +2907,7 @@
         <v>2</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3026,7 +3026,7 @@
         <v>4</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3094,7 +3094,7 @@
         <v>5</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Coder Army Sheet.xlsx
+++ b/Coder Army Sheet.xlsx
@@ -2734,11 +2734,11 @@
   </sheetPr>
   <dimension ref="A1:E746"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A20" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A61" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B68" activeCellId="0" sqref="B68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="62.88"/>
@@ -2992,7 +2992,7 @@
         <v>3</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3043,7 +3043,7 @@
         <v>4</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3077,7 +3077,7 @@
         <v>5</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3434,7 +3434,7 @@
         <v>11</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3866,7 +3866,7 @@
         <v>20</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Coder Army Sheet.xlsx
+++ b/Coder Army Sheet.xlsx
@@ -2734,11 +2734,11 @@
   </sheetPr>
   <dimension ref="A1:E746"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A61" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B68" activeCellId="0" sqref="B68"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.73046875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="62.88"/>
@@ -4247,7 +4247,7 @@
         <v>29</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4264,7 +4264,7 @@
         <v>29</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4315,7 +4315,7 @@
         <v>30</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Coder Army Sheet.xlsx
+++ b/Coder Army Sheet.xlsx
@@ -2734,11 +2734,11 @@
   </sheetPr>
   <dimension ref="A1:E746"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.73046875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="62.88"/>
@@ -3009,7 +3009,7 @@
         <v>4</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Coder Army Sheet.xlsx
+++ b/Coder Army Sheet.xlsx
@@ -2735,10 +2735,10 @@
   <dimension ref="A1:E746"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
+      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.7578125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="62.88"/>
@@ -3128,7 +3128,7 @@
         <v>5</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3145,7 +3145,7 @@
         <v>6</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3162,7 +3162,7 @@
         <v>6</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Coder Army Sheet.xlsx
+++ b/Coder Army Sheet.xlsx
@@ -2734,11 +2734,11 @@
   </sheetPr>
   <dimension ref="A1:E746"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A18" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E39" activeCellId="0" sqref="E39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7578125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="62.88"/>
@@ -3383,7 +3383,7 @@
         <v>10</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Coder Army Sheet.xlsx
+++ b/Coder Army Sheet.xlsx
@@ -2734,11 +2734,11 @@
   </sheetPr>
   <dimension ref="A1:E746"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A18" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E39" activeCellId="0" sqref="E39"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B65" activeCellId="0" sqref="B65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="62.88"/>
@@ -3264,7 +3264,7 @@
         <v>7</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3366,7 +3366,7 @@
         <v>9</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3781,7 +3781,7 @@
         <v>18</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3815,7 +3815,7 @@
         <v>18</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Coder Army Sheet.xlsx
+++ b/Coder Army Sheet.xlsx
@@ -2734,11 +2734,11 @@
   </sheetPr>
   <dimension ref="A1:E746"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B65" activeCellId="0" sqref="B65"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A89" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B114" activeCellId="0" sqref="B114"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="62.88"/>
@@ -4417,7 +4417,7 @@
         <v>31</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4638,7 +4638,7 @@
         <v>34</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Coder Army Sheet.xlsx
+++ b/Coder Army Sheet.xlsx
@@ -2734,11 +2734,11 @@
   </sheetPr>
   <dimension ref="A1:E746"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A89" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B114" activeCellId="0" sqref="B114"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A104" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E130" activeCellId="0" sqref="E130"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.83203125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="62.88"/>
@@ -4740,7 +4740,7 @@
         <v>36</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4910,7 +4910,7 @@
         <v>39</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Coder Army Sheet.xlsx
+++ b/Coder Army Sheet.xlsx
@@ -2734,11 +2734,11 @@
   </sheetPr>
   <dimension ref="A1:E746"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A104" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E130" activeCellId="0" sqref="E130"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A106" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B110" activeCellId="0" sqref="B110"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.83203125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.8671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="62.88"/>
@@ -4468,7 +4468,7 @@
         <v>32</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4502,7 +4502,7 @@
         <v>32</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4553,7 +4553,7 @@
         <v>33</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4570,7 +4570,7 @@
         <v>33</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4587,7 +4587,7 @@
         <v>34</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Coder Army Sheet.xlsx
+++ b/Coder Army Sheet.xlsx
@@ -2734,11 +2734,11 @@
   </sheetPr>
   <dimension ref="A1:E746"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A106" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B110" activeCellId="0" sqref="B110"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A201" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B74" activeCellId="0" sqref="B74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.8671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="62.88"/>
@@ -2941,7 +2941,7 @@
         <v>3</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4757,7 +4757,7 @@
         <v>36</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Coder Army Sheet.xlsx
+++ b/Coder Army Sheet.xlsx
@@ -2734,11 +2734,11 @@
   </sheetPr>
   <dimension ref="A1:E746"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A201" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B74" activeCellId="0" sqref="B74"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B24" activeCellId="0" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.90234375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="62.88"/>
@@ -3247,7 +3247,7 @@
         <v>7</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Coder Army Sheet.xlsx
+++ b/Coder Army Sheet.xlsx
@@ -2734,11 +2734,11 @@
   </sheetPr>
   <dimension ref="A1:E746"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B24" activeCellId="0" sqref="B24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A113" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E129" activeCellId="0" sqref="E129"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.90234375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.94140625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="62.88"/>
@@ -4621,7 +4621,7 @@
         <v>34</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4791,7 +4791,7 @@
         <v>37</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4825,7 +4825,7 @@
         <v>38</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4893,7 +4893,7 @@
         <v>39</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Coder Army Sheet.xlsx
+++ b/Coder Army Sheet.xlsx
@@ -2734,11 +2734,11 @@
   </sheetPr>
   <dimension ref="A1:E746"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A113" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E129" activeCellId="0" sqref="E129"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A134" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E139" activeCellId="0" sqref="E139"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.94140625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.95703125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="62.88"/>
@@ -5046,7 +5046,7 @@
         <v>42</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5063,7 +5063,7 @@
         <v>42</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Coder Army Sheet.xlsx
+++ b/Coder Army Sheet.xlsx
@@ -2734,8 +2734,8 @@
   </sheetPr>
   <dimension ref="A1:E746"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A134" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E139" activeCellId="0" sqref="E139"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A127" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B134" activeCellId="0" sqref="B134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.95703125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Coder Army Sheet.xlsx
+++ b/Coder Army Sheet.xlsx
@@ -2734,11 +2734,11 @@
   </sheetPr>
   <dimension ref="A1:E746"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A127" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B134" activeCellId="0" sqref="B134"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A18" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B100" activeCellId="0" sqref="B100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.95703125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.9765625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="62.88"/>
@@ -4281,7 +4281,7 @@
         <v>29</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4349,7 +4349,7 @@
         <v>30</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4383,7 +4383,7 @@
         <v>31</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4451,7 +4451,7 @@
         <v>32</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Coder Army Sheet.xlsx
+++ b/Coder Army Sheet.xlsx
@@ -2737,11 +2737,11 @@
   </sheetPr>
   <dimension ref="A1:F746"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A20" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E27" activeCellId="0" sqref="E27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A58" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B74" activeCellId="0" sqref="B74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.00390625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.01953125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="62.88"/>
@@ -3290,7 +3290,7 @@
         <v>7</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3691,7 +3691,7 @@
         <v>16</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4082,7 +4082,7 @@
         <v>24</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Coder Army Sheet.xlsx
+++ b/Coder Army Sheet.xlsx
@@ -2737,11 +2737,11 @@
   </sheetPr>
   <dimension ref="A1:F746"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A58" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B74" activeCellId="0" sqref="B74"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A159" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B163" activeCellId="0" sqref="B163"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.01953125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.0546875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="62.88"/>
@@ -5370,7 +5370,7 @@
         <v>50</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5387,7 +5387,7 @@
         <v>50</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5404,7 +5404,7 @@
         <v>50</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5438,7 +5438,7 @@
         <v>51</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5523,7 +5523,7 @@
         <v>52</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5591,7 +5591,7 @@
         <v>53</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5625,7 +5625,7 @@
         <v>53</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5642,7 +5642,7 @@
         <v>54</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5676,7 +5676,7 @@
         <v>54</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5727,7 +5727,7 @@
         <v>55</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Coder Army Sheet.xlsx
+++ b/Coder Army Sheet.xlsx
@@ -2738,10 +2738,10 @@
   <dimension ref="A1:F746"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A159" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B163" activeCellId="0" sqref="B163"/>
+      <selection pane="topLeft" activeCell="E163" activeCellId="0" sqref="E163"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.0546875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.07421875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="62.88"/>
@@ -5455,7 +5455,7 @@
         <v>51</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5472,7 +5472,7 @@
         <v>51</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Coder Army Sheet.xlsx
+++ b/Coder Army Sheet.xlsx
@@ -2737,11 +2737,11 @@
   </sheetPr>
   <dimension ref="A1:F746"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A159" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E163" activeCellId="0" sqref="E163"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A167" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B193" activeCellId="0" sqref="B193"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.07421875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.09375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="62.88"/>
@@ -5506,7 +5506,7 @@
         <v>52</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5761,7 +5761,7 @@
         <v>55</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5829,7 +5829,7 @@
         <v>56</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5863,7 +5863,7 @@
         <v>57</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5897,7 +5897,7 @@
         <v>57</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Coder Army Sheet.xlsx
+++ b/Coder Army Sheet.xlsx
@@ -2737,11 +2737,11 @@
   </sheetPr>
   <dimension ref="A1:F746"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A167" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B193" activeCellId="0" sqref="B193"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A111" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B116" activeCellId="0" sqref="B116"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.09375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.109375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="62.88"/>
@@ -5659,7 +5659,7 @@
         <v>54</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5812,7 +5812,7 @@
         <v>56</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Coder Army Sheet.xlsx
+++ b/Coder Army Sheet.xlsx
@@ -2737,11 +2737,11 @@
   </sheetPr>
   <dimension ref="A1:F746"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A111" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B116" activeCellId="0" sqref="B116"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A121" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F132" activeCellId="0" sqref="F132"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.109375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.12109375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="62.88"/>
@@ -4939,10 +4939,10 @@
         <v>40</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="17" t="s">
         <v>100</v>
       </c>
@@ -4958,6 +4958,7 @@
       <c r="E132" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="F132" s="2"/>
     </row>
     <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="17" t="s">

--- a/Coder Army Sheet.xlsx
+++ b/Coder Army Sheet.xlsx
@@ -2737,11 +2737,11 @@
   </sheetPr>
   <dimension ref="A1:F746"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A121" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F132" activeCellId="0" sqref="F132"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A158" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B176" activeCellId="0" sqref="B176"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.12109375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.13671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="62.88"/>
@@ -4548,7 +4548,7 @@
         <v>33</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4616,7 +4616,7 @@
         <v>34</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5042,7 +5042,7 @@
         <v>42</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5422,7 +5422,7 @@
         <v>50</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5541,7 +5541,7 @@
         <v>52</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5575,7 +5575,7 @@
         <v>53</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Coder Army Sheet.xlsx
+++ b/Coder Army Sheet.xlsx
@@ -2737,11 +2737,11 @@
   </sheetPr>
   <dimension ref="A1:F746"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A158" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B176" activeCellId="0" sqref="B176"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A182" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B195" activeCellId="0" sqref="B195"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.13671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.171875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="62.88"/>
@@ -5796,7 +5796,7 @@
         <v>56</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5966,7 +5966,7 @@
         <v>59</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6000,7 +6000,7 @@
         <v>59</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Coder Army Sheet.xlsx
+++ b/Coder Army Sheet.xlsx
@@ -2737,11 +2737,11 @@
   </sheetPr>
   <dimension ref="A1:F746"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A182" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B195" activeCellId="0" sqref="B195"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.171875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.19140625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="62.88"/>
@@ -6381,7 +6381,7 @@
         <v>68</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6398,7 +6398,7 @@
         <v>68</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6415,7 +6415,7 @@
         <v>68</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6432,7 +6432,7 @@
         <v>68</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6449,7 +6449,7 @@
         <v>69</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6483,7 +6483,7 @@
         <v>69</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Coder Army Sheet.xlsx
+++ b/Coder Army Sheet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2915" uniqueCount="753">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2916" uniqueCount="753">
   <si>
     <t xml:space="preserve">Hard work Beats Talent When Talent Doesn't work Hard</t>
   </si>
@@ -2737,11 +2737,11 @@
   </sheetPr>
   <dimension ref="A1:F746"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A219" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E232" activeCellId="0" sqref="E232"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.19140625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.2265625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="62.88"/>
@@ -5745,7 +5745,7 @@
         <v>55</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5765,7 +5765,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="17" t="s">
         <v>166</v>
       </c>
@@ -5779,7 +5779,10 @@
         <v>56</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="F181" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5983,7 +5986,7 @@
         <v>59</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6204,7 +6207,7 @@
         <v>63</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6636,7 +6639,7 @@
         <v>71</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Coder Army Sheet.xlsx
+++ b/Coder Army Sheet.xlsx
@@ -2738,7 +2738,7 @@
   <dimension ref="A1:F746"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A219" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E232" activeCellId="0" sqref="E232"/>
+      <selection pane="topLeft" activeCell="B229" activeCellId="0" sqref="B229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.2265625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Coder Army Sheet.xlsx
+++ b/Coder Army Sheet.xlsx
@@ -2737,11 +2737,11 @@
   </sheetPr>
   <dimension ref="A1:F746"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A219" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B229" activeCellId="0" sqref="B229"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A234" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B244" activeCellId="0" sqref="B244"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.2265625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.23828125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="62.88"/>
@@ -5952,7 +5952,7 @@
         <v>58</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6503,7 +6503,7 @@
         <v>69</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6690,7 +6690,7 @@
         <v>72</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Coder Army Sheet.xlsx
+++ b/Coder Army Sheet.xlsx
@@ -2737,11 +2737,11 @@
   </sheetPr>
   <dimension ref="A1:F746"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A234" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B244" activeCellId="0" sqref="B244"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A249" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E265" activeCellId="0" sqref="E265"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.23828125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.2734375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="62.88"/>
@@ -6571,7 +6571,7 @@
         <v>70</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6605,7 +6605,7 @@
         <v>71</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7054,7 +7054,7 @@
         <v>81</v>
       </c>
       <c r="E257" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7071,7 +7071,7 @@
         <v>81</v>
       </c>
       <c r="E258" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7122,7 +7122,7 @@
         <v>82</v>
       </c>
       <c r="E261" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7190,7 +7190,7 @@
         <v>83</v>
       </c>
       <c r="E265" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Coder Army Sheet.xlsx
+++ b/Coder Army Sheet.xlsx
@@ -2737,11 +2737,11 @@
   </sheetPr>
   <dimension ref="A1:F746"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A249" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E265" activeCellId="0" sqref="E265"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A258" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B266" activeCellId="0" sqref="B266"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.2734375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.30859375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="62.88"/>
@@ -6224,7 +6224,7 @@
         <v>64</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7139,7 +7139,7 @@
         <v>82</v>
       </c>
       <c r="E262" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7156,7 +7156,7 @@
         <v>83</v>
       </c>
       <c r="E263" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7173,7 +7173,7 @@
         <v>83</v>
       </c>
       <c r="E264" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7224,7 +7224,7 @@
         <v>84</v>
       </c>
       <c r="E267" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7343,7 +7343,7 @@
         <v>86</v>
       </c>
       <c r="E274" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Coder Army Sheet.xlsx
+++ b/Coder Army Sheet.xlsx
@@ -2737,11 +2737,11 @@
   </sheetPr>
   <dimension ref="A1:F746"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A258" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B266" activeCellId="0" sqref="B266"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A165" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B176" activeCellId="0" sqref="B176"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.30859375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="62.88"/>
@@ -4735,7 +4735,7 @@
         <v>36</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Coder Army Sheet.xlsx
+++ b/Coder Army Sheet.xlsx
@@ -2737,11 +2737,11 @@
   </sheetPr>
   <dimension ref="A1:F746"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A165" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B176" activeCellId="0" sqref="B176"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A263" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B273" activeCellId="0" sqref="B273"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.34375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="62.88"/>
@@ -6809,7 +6809,7 @@
         <v>75</v>
       </c>
       <c r="E242" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6843,7 +6843,7 @@
         <v>75</v>
       </c>
       <c r="E244" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7088,7 +7088,7 @@
         <v>82</v>
       </c>
       <c r="E259" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Coder Army Sheet.xlsx
+++ b/Coder Army Sheet.xlsx
@@ -2737,11 +2737,11 @@
   </sheetPr>
   <dimension ref="A1:F746"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A263" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B273" activeCellId="0" sqref="B273"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A181" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E199" activeCellId="0" sqref="E199"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.34375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.3984375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="62.88"/>
@@ -6088,7 +6088,7 @@
         <v>61</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6258,7 +6258,7 @@
         <v>64</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Coder Army Sheet.xlsx
+++ b/Coder Army Sheet.xlsx
@@ -2737,11 +2737,11 @@
   </sheetPr>
   <dimension ref="A1:F746"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A181" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E199" activeCellId="0" sqref="E199"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A258" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B241" activeCellId="0" sqref="B241"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.3984375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.43359375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="62.88"/>
@@ -6554,7 +6554,7 @@
         <v>70</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6741,7 +6741,7 @@
         <v>73</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Coder Army Sheet.xlsx
+++ b/Coder Army Sheet.xlsx
@@ -2737,11 +2737,11 @@
   </sheetPr>
   <dimension ref="A1:F746"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A258" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B241" activeCellId="0" sqref="B241"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A217" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B225" activeCellId="0" sqref="B225"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.43359375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.453125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="62.88"/>
@@ -6520,7 +6520,7 @@
         <v>70</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6877,7 +6877,7 @@
         <v>76</v>
       </c>
       <c r="E246" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Coder Army Sheet.xlsx
+++ b/Coder Army Sheet.xlsx
@@ -2737,11 +2737,11 @@
   </sheetPr>
   <dimension ref="A1:F746"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A217" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B225" activeCellId="0" sqref="B225"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A133" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E150" activeCellId="0" sqref="E150"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.453125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.47265625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="62.88"/>
@@ -5246,7 +5246,7 @@
         <v>46</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5263,7 +5263,7 @@
         <v>47</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Coder Army Sheet.xlsx
+++ b/Coder Army Sheet.xlsx
@@ -2737,11 +2737,11 @@
   </sheetPr>
   <dimension ref="A1:F746"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A133" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E150" activeCellId="0" sqref="E150"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A169" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E189" activeCellId="0" sqref="E189"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.47265625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.5078125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="62.88"/>
@@ -4344,7 +4344,7 @@
         <v>30</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4412,7 +4412,7 @@
         <v>31</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5918,7 +5918,7 @@
         <v>58</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6326,7 +6326,7 @@
         <v>66</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Coder Army Sheet.xlsx
+++ b/Coder Army Sheet.xlsx
@@ -2737,11 +2737,11 @@
   </sheetPr>
   <dimension ref="A1:F746"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A169" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E189" activeCellId="0" sqref="E189"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A229" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E234" activeCellId="0" sqref="E234"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.5078125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.54296875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="62.88"/>
@@ -6156,7 +6156,7 @@
         <v>62</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6469,7 +6469,7 @@
         <v>69</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6673,7 +6673,7 @@
         <v>72</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6826,7 +6826,7 @@
         <v>75</v>
       </c>
       <c r="E243" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Coder Army Sheet.xlsx
+++ b/Coder Army Sheet.xlsx
@@ -3687,8 +3687,8 @@
   <sheetPr/>
   <dimension ref="A1:F746"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A229" workbookViewId="0">
-      <selection activeCell="E233" sqref="E233"/>
+    <sheetView tabSelected="1" topLeftCell="A220" workbookViewId="0">
+      <selection activeCell="E239" sqref="E239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5462962962963" defaultRowHeight="13.2" outlineLevelCol="5"/>
@@ -7708,7 +7708,7 @@
         <v>74</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="240" ht="15.6" spans="1:5">

--- a/Coder Army Sheet.xlsx
+++ b/Coder Army Sheet.xlsx
@@ -3687,8 +3687,8 @@
   <sheetPr/>
   <dimension ref="A1:F746"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A220" workbookViewId="0">
-      <selection activeCell="E239" sqref="E239"/>
+    <sheetView tabSelected="1" topLeftCell="A262" workbookViewId="0">
+      <selection activeCell="B277" sqref="B277"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5462962962963" defaultRowHeight="13.2" outlineLevelCol="5"/>
@@ -8225,7 +8225,7 @@
         <v>84</v>
       </c>
       <c r="E270" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="271" ht="15.6" spans="1:5">
@@ -8242,7 +8242,7 @@
         <v>85</v>
       </c>
       <c r="E271" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="272" ht="15.6" spans="1:5">
@@ -8327,7 +8327,7 @@
         <v>86</v>
       </c>
       <c r="E276" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="277" ht="15.6" spans="1:5">

--- a/Coder Army Sheet.xlsx
+++ b/Coder Army Sheet.xlsx
@@ -3687,8 +3687,8 @@
   <sheetPr/>
   <dimension ref="A1:F746"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A262" workbookViewId="0">
-      <selection activeCell="B277" sqref="B277"/>
+    <sheetView tabSelected="1" topLeftCell="A289" workbookViewId="0">
+      <selection activeCell="B292" sqref="B292"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5462962962963" defaultRowHeight="13.2" outlineLevelCol="5"/>
@@ -8419,7 +8419,7 @@
         <v>89</v>
       </c>
       <c r="E282" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="283" ht="15.6" spans="1:5">
@@ -8436,7 +8436,7 @@
         <v>89</v>
       </c>
       <c r="E283" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="284" ht="15.6" spans="1:5">
@@ -8453,7 +8453,7 @@
         <v>89</v>
       </c>
       <c r="E284" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="285" ht="15.6" spans="1:5">
@@ -8470,7 +8470,7 @@
         <v>89</v>
       </c>
       <c r="E285" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="286" ht="15.6" spans="1:5">
@@ -8487,7 +8487,7 @@
         <v>90</v>
       </c>
       <c r="E286" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="287" ht="15.6" spans="1:5">
@@ -8504,7 +8504,7 @@
         <v>90</v>
       </c>
       <c r="E287" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="288" ht="15.6" spans="1:5">
@@ -8521,7 +8521,7 @@
         <v>90</v>
       </c>
       <c r="E288" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="289" ht="15.6" spans="1:5">
@@ -8572,7 +8572,7 @@
         <v>91</v>
       </c>
       <c r="E291" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="292" ht="15.6" spans="1:5">
@@ -8589,7 +8589,7 @@
         <v>91</v>
       </c>
       <c r="E292" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="293" ht="15.6" spans="1:5">
@@ -8623,7 +8623,7 @@
         <v>92</v>
       </c>
       <c r="E294" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="295" ht="15.6" spans="1:5">
@@ -8640,7 +8640,7 @@
         <v>92</v>
       </c>
       <c r="E295" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="296" ht="15.6" spans="1:5">
@@ -8674,7 +8674,7 @@
         <v>92</v>
       </c>
       <c r="E297" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="298" ht="15.6" spans="1:5">
@@ -8742,7 +8742,7 @@
         <v>93</v>
       </c>
       <c r="E301" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="302" ht="15.6" spans="1:5">
@@ -8776,7 +8776,7 @@
         <v>94</v>
       </c>
       <c r="E303" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="304" ht="15.6" spans="1:5">
@@ -8827,7 +8827,7 @@
         <v>95</v>
       </c>
       <c r="E306" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="307" ht="15.6" spans="1:5">

--- a/Coder Army Sheet.xlsx
+++ b/Coder Army Sheet.xlsx
@@ -3687,8 +3687,8 @@
   <sheetPr/>
   <dimension ref="A1:F746"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A289" workbookViewId="0">
-      <selection activeCell="B292" sqref="B292"/>
+    <sheetView tabSelected="1" topLeftCell="A280" workbookViewId="0">
+      <selection activeCell="E290" sqref="E290"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5462962962963" defaultRowHeight="13.2" outlineLevelCol="5"/>
@@ -8538,7 +8538,7 @@
         <v>90</v>
       </c>
       <c r="E289" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="290" ht="15.6" spans="1:5">
@@ -8555,7 +8555,7 @@
         <v>91</v>
       </c>
       <c r="E290" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="291" ht="15.6" spans="1:5">
@@ -8708,7 +8708,7 @@
         <v>93</v>
       </c>
       <c r="E299" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="300" ht="15.6" spans="1:5">

--- a/Coder Army Sheet.xlsx
+++ b/Coder Army Sheet.xlsx
@@ -3687,8 +3687,8 @@
   <sheetPr/>
   <dimension ref="A1:F746"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A280" workbookViewId="0">
-      <selection activeCell="E290" sqref="E290"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A310" workbookViewId="0">
+      <selection activeCell="B323" sqref="B323"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5462962962963" defaultRowHeight="13.2" outlineLevelCol="5"/>
@@ -8606,7 +8606,7 @@
         <v>91</v>
       </c>
       <c r="E293" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="294" ht="15.6" spans="1:5">
@@ -8929,7 +8929,7 @@
         <v>96</v>
       </c>
       <c r="E312" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="313" ht="15.6" spans="1:5">
@@ -9031,7 +9031,7 @@
         <v>98</v>
       </c>
       <c r="E318" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="319" ht="15.6" spans="1:5">
@@ -9116,7 +9116,7 @@
         <v>100</v>
       </c>
       <c r="E323" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="324" ht="15.6" spans="1:5">
@@ -9150,7 +9150,7 @@
         <v>101</v>
       </c>
       <c r="E325" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="326" ht="15.6" spans="1:5">
@@ -9252,7 +9252,7 @@
         <v>103</v>
       </c>
       <c r="E331" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="332" ht="15.6" spans="1:5">

--- a/Coder Army Sheet.xlsx
+++ b/Coder Army Sheet.xlsx
@@ -3687,8 +3687,8 @@
   <sheetPr/>
   <dimension ref="A1:F746"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A310" workbookViewId="0">
-      <selection activeCell="B323" sqref="B323"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A304" workbookViewId="0">
+      <selection activeCell="E316" sqref="E316"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5462962962963" defaultRowHeight="13.2" outlineLevelCol="5"/>
@@ -8997,7 +8997,7 @@
         <v>98</v>
       </c>
       <c r="E316" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="317" ht="15.6" spans="1:5">

--- a/Coder Army Sheet.xlsx
+++ b/Coder Army Sheet.xlsx
@@ -3687,8 +3687,8 @@
   <sheetPr/>
   <dimension ref="A1:F746"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A304" workbookViewId="0">
-      <selection activeCell="E316" sqref="E316"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A284" workbookViewId="0">
+      <selection activeCell="E298" sqref="E298"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5462962962963" defaultRowHeight="13.2" outlineLevelCol="5"/>
@@ -7742,7 +7742,7 @@
         <v>74</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="242" ht="15.6" spans="1:5">
@@ -7895,7 +7895,7 @@
         <v>78</v>
       </c>
       <c r="E250" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="251" ht="15.6" spans="1:5">
@@ -8657,7 +8657,7 @@
         <v>92</v>
       </c>
       <c r="E296" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="297" ht="15.6" spans="1:5">
@@ -8691,7 +8691,7 @@
         <v>93</v>
       </c>
       <c r="E298" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="299" ht="15.6" spans="1:5">

--- a/Coder Army Sheet.xlsx
+++ b/Coder Army Sheet.xlsx
@@ -3687,8 +3687,8 @@
   <sheetPr/>
   <dimension ref="A1:F746"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A284" workbookViewId="0">
-      <selection activeCell="E298" sqref="E298"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A322" workbookViewId="0">
+      <selection activeCell="E334" sqref="E334"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5462962962963" defaultRowHeight="13.2" outlineLevelCol="5"/>
@@ -9445,7 +9445,7 @@
         <v>108</v>
       </c>
       <c r="E343" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="344" ht="15.6" spans="1:5">
@@ -9462,7 +9462,7 @@
         <v>108</v>
       </c>
       <c r="E344" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="345" ht="15.6" spans="1:5">
@@ -9530,7 +9530,7 @@
         <v>109</v>
       </c>
       <c r="E348" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="349" ht="15.6" spans="1:5">
@@ -10233,7 +10233,7 @@
         <v>121</v>
       </c>
       <c r="E390" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="391" ht="15.6" spans="1:5">
@@ -10250,7 +10250,7 @@
         <v>121</v>
       </c>
       <c r="E391" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="392" ht="15.6" spans="1:5">
@@ -10488,7 +10488,7 @@
         <v>125</v>
       </c>
       <c r="E405" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="406" ht="15.6" spans="1:5">

--- a/Coder Army Sheet.xlsx
+++ b/Coder Army Sheet.xlsx
@@ -3687,8 +3687,8 @@
   <sheetPr/>
   <dimension ref="A1:F746"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A322" workbookViewId="0">
-      <selection activeCell="E334" sqref="E334"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A352" workbookViewId="0">
+      <selection activeCell="E357" sqref="E357"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5462962962963" defaultRowHeight="13.2" outlineLevelCol="5"/>
@@ -9683,7 +9683,7 @@
         <v>111</v>
       </c>
       <c r="E357" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="358" ht="15.6" spans="1:5">

--- a/Coder Army Sheet.xlsx
+++ b/Coder Army Sheet.xlsx
@@ -3687,8 +3687,8 @@
   <sheetPr/>
   <dimension ref="A1:F746"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A352" workbookViewId="0">
-      <selection activeCell="E357" sqref="E357"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A440" workbookViewId="0">
+      <selection activeCell="B428" sqref="B428"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5462962962963" defaultRowHeight="13.2" outlineLevelCol="5"/>
@@ -10868,7 +10868,7 @@
         <v>133</v>
       </c>
       <c r="E428" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="429" ht="15.6" spans="1:5">
@@ -11157,7 +11157,7 @@
         <v>137</v>
       </c>
       <c r="E445" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="446" ht="15.6" spans="1:5">
@@ -11225,7 +11225,7 @@
         <v>138</v>
       </c>
       <c r="E449" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="450" ht="15.6" spans="1:5">

--- a/Coder Army Sheet.xlsx
+++ b/Coder Army Sheet.xlsx
@@ -3687,8 +3687,8 @@
   <sheetPr/>
   <dimension ref="A1:F746"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A440" workbookViewId="0">
-      <selection activeCell="B428" sqref="B428"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A314" workbookViewId="0">
+      <selection activeCell="E329" sqref="E329"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5462962962963" defaultRowHeight="13.2" outlineLevelCol="5"/>
@@ -9218,7 +9218,7 @@
         <v>102</v>
       </c>
       <c r="E329" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="330" ht="15.6" spans="1:5">

--- a/Coder Army Sheet.xlsx
+++ b/Coder Army Sheet.xlsx
@@ -3687,8 +3687,8 @@
   <sheetPr/>
   <dimension ref="A1:F746"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A314" workbookViewId="0">
-      <selection activeCell="E329" sqref="E329"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A174" workbookViewId="0">
+      <selection activeCell="B117" sqref="B117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5462962962963" defaultRowHeight="13.2" outlineLevelCol="5"/>
@@ -6661,7 +6661,7 @@
         <v>55</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="178" ht="15.6" spans="1:5">

--- a/Coder Army Sheet.xlsx
+++ b/Coder Army Sheet.xlsx
@@ -3687,8 +3687,8 @@
   <sheetPr/>
   <dimension ref="A1:F746"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A174" workbookViewId="0">
-      <selection activeCell="B117" sqref="B117"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A254" workbookViewId="0">
+      <selection activeCell="B269" sqref="B269"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5462962962963" defaultRowHeight="13.2" outlineLevelCol="5"/>
@@ -8208,7 +8208,7 @@
         <v>84</v>
       </c>
       <c r="E269" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="270" ht="15.6" spans="1:5">

--- a/Coder Army Sheet.xlsx
+++ b/Coder Army Sheet.xlsx
@@ -3687,8 +3687,8 @@
   <sheetPr/>
   <dimension ref="A1:F746"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A254" workbookViewId="0">
-      <selection activeCell="B269" sqref="B269"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A352" workbookViewId="0">
+      <selection activeCell="B392" sqref="B392"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5462962962963" defaultRowHeight="13.2" outlineLevelCol="5"/>
@@ -10352,7 +10352,7 @@
         <v>123</v>
       </c>
       <c r="E397" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="398" ht="15.6" spans="1:5">
@@ -11463,7 +11463,7 @@
         <v>144</v>
       </c>
       <c r="E463" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="464" ht="15.6" spans="1:5">

--- a/Coder Army Sheet.xlsx
+++ b/Coder Army Sheet.xlsx
@@ -3687,8 +3687,8 @@
   <sheetPr/>
   <dimension ref="A1:F746"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A352" workbookViewId="0">
-      <selection activeCell="B392" sqref="B392"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A448" workbookViewId="0">
+      <selection activeCell="B446" sqref="B446"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5462962962963" defaultRowHeight="13.2" outlineLevelCol="5"/>
@@ -10936,7 +10936,7 @@
         <v>134</v>
       </c>
       <c r="E432" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="433" ht="15.6" spans="1:5">

--- a/Coder Army Sheet.xlsx
+++ b/Coder Army Sheet.xlsx
@@ -3687,8 +3687,8 @@
   <sheetPr/>
   <dimension ref="A1:F746"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A448" workbookViewId="0">
-      <selection activeCell="B446" sqref="B446"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A428" workbookViewId="0">
+      <selection activeCell="E443" sqref="E443"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5462962962963" defaultRowHeight="13.2" outlineLevelCol="5"/>
@@ -11123,7 +11123,7 @@
         <v>137</v>
       </c>
       <c r="E443" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="444" ht="15.6" spans="1:5">
@@ -11208,7 +11208,7 @@
         <v>138</v>
       </c>
       <c r="E448" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="449" ht="15.6" spans="1:5">

--- a/Coder Army Sheet.xlsx
+++ b/Coder Army Sheet.xlsx
@@ -3687,8 +3687,8 @@
   <sheetPr/>
   <dimension ref="A1:F746"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A428" workbookViewId="0">
-      <selection activeCell="E443" sqref="E443"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A464" workbookViewId="0">
+      <selection activeCell="B489" sqref="B489"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5462962962963" defaultRowHeight="13.2" outlineLevelCol="5"/>
@@ -10970,7 +10970,7 @@
         <v>134</v>
       </c>
       <c r="E434" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="435" ht="15.6" spans="1:5">
@@ -12070,7 +12070,7 @@
         <v>157</v>
       </c>
       <c r="E500" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="501" ht="15.6" spans="1:5">
@@ -12087,7 +12087,7 @@
         <v>157</v>
       </c>
       <c r="E501" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="502" ht="15.6" spans="1:5">
@@ -12104,7 +12104,7 @@
         <v>157</v>
       </c>
       <c r="E502" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="503" ht="15.6" spans="1:5">
@@ -12121,7 +12121,7 @@
         <v>157</v>
       </c>
       <c r="E503" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="504" ht="15.6" spans="1:5">

--- a/Coder Army Sheet.xlsx
+++ b/Coder Army Sheet.xlsx
@@ -3687,8 +3687,8 @@
   <sheetPr/>
   <dimension ref="A1:F746"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A464" workbookViewId="0">
-      <selection activeCell="B489" sqref="B489"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A500" workbookViewId="0">
+      <selection activeCell="E518" sqref="E518"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5462962962963" defaultRowHeight="13.2" outlineLevelCol="5"/>
@@ -10834,7 +10834,7 @@
         <v>132</v>
       </c>
       <c r="E426" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="427" ht="15.6" spans="1:5">
@@ -12376,7 +12376,7 @@
         <v>162</v>
       </c>
       <c r="E518" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="519" ht="15.6" spans="1:5">
@@ -12393,7 +12393,7 @@
         <v>162</v>
       </c>
       <c r="E519" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="520" ht="15.6" spans="1:5">

--- a/Coder Army Sheet.xlsx
+++ b/Coder Army Sheet.xlsx
@@ -3687,8 +3687,8 @@
   <sheetPr/>
   <dimension ref="A1:F746"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A500" workbookViewId="0">
-      <selection activeCell="E518" sqref="E518"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A466" workbookViewId="0">
+      <selection activeCell="E473" sqref="E473"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5462962962963" defaultRowHeight="13.2" outlineLevelCol="5"/>
@@ -11622,7 +11622,7 @@
         <v>148</v>
       </c>
       <c r="E473" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="474" ht="15.6" spans="1:5">
@@ -12138,7 +12138,7 @@
         <v>158</v>
       </c>
       <c r="E504" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="505" ht="15.6" spans="1:5">

--- a/Coder Army Sheet.xlsx
+++ b/Coder Army Sheet.xlsx
@@ -3687,8 +3687,8 @@
   <sheetPr/>
   <dimension ref="A1:F746"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A466" workbookViewId="0">
-      <selection activeCell="E473" sqref="E473"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A475" workbookViewId="0">
+      <selection activeCell="B491" sqref="B491"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5462962962963" defaultRowHeight="13.2" outlineLevelCol="5"/>
@@ -11605,7 +11605,7 @@
         <v>148</v>
       </c>
       <c r="E472" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="473" ht="15.6" spans="1:5">
@@ -11639,7 +11639,7 @@
         <v>148</v>
       </c>
       <c r="E474" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="475" ht="15.6" spans="1:5">
@@ -11775,7 +11775,7 @@
         <v>150</v>
       </c>
       <c r="E482" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="483" ht="15.6" spans="1:5">
@@ -11843,7 +11843,7 @@
         <v>152</v>
       </c>
       <c r="E486" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="487" ht="15.6" spans="1:5">
@@ -11894,7 +11894,7 @@
         <v>153</v>
       </c>
       <c r="E489" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="490" ht="15.6" spans="1:5">

--- a/Coder Army Sheet.xlsx
+++ b/Coder Army Sheet.xlsx
@@ -3687,8 +3687,8 @@
   <sheetPr/>
   <dimension ref="A1:F746"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A475" workbookViewId="0">
-      <selection activeCell="B491" sqref="B491"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A217" workbookViewId="0">
+      <selection activeCell="B227" sqref="B227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5462962962963" defaultRowHeight="13.2" outlineLevelCol="5"/>
@@ -4896,7 +4896,7 @@
         <v>21</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="73" ht="15.6" spans="1:5">
@@ -6559,7 +6559,7 @@
         <v>53</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="172" ht="15.6" spans="1:5">
@@ -6644,7 +6644,7 @@
         <v>54</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="177" ht="15.6" spans="1:5">
@@ -6987,7 +6987,7 @@
         <v>60</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="197" ht="15.6" spans="1:5">

--- a/Coder Army Sheet.xlsx
+++ b/Coder Army Sheet.xlsx
@@ -3687,8 +3687,8 @@
   <sheetPr/>
   <dimension ref="A1:F746"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A217" workbookViewId="0">
-      <selection activeCell="B227" sqref="B227"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A513" workbookViewId="0">
+      <selection activeCell="B520" sqref="B520"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5462962962963" defaultRowHeight="13.2" outlineLevelCol="5"/>
@@ -11673,7 +11673,7 @@
         <v>149</v>
       </c>
       <c r="E476" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="477" ht="15.6" spans="1:5">
@@ -11877,7 +11877,7 @@
         <v>152</v>
       </c>
       <c r="E488" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="489" ht="15.6" spans="1:5">

--- a/Coder Army Sheet.xlsx
+++ b/Coder Army Sheet.xlsx
@@ -3687,8 +3687,8 @@
   <sheetPr/>
   <dimension ref="A1:F746"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A513" workbookViewId="0">
-      <selection activeCell="B520" sqref="B520"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="F115" sqref="F115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5462962962963" defaultRowHeight="13.2" outlineLevelCol="5"/>
@@ -10851,7 +10851,7 @@
         <v>133</v>
       </c>
       <c r="E427" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="428" ht="15.6" spans="1:5">
@@ -11996,7 +11996,7 @@
         <v>155</v>
       </c>
       <c r="E495" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="496" ht="15.6" spans="1:5">
@@ -13646,7 +13646,7 @@
         <v>188</v>
       </c>
       <c r="E594" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="595" ht="15.6" spans="1:5">
@@ -13680,7 +13680,7 @@
         <v>188</v>
       </c>
       <c r="E596" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="597" ht="15.6" spans="1:5">

--- a/Coder Army Sheet.xlsx
+++ b/Coder Army Sheet.xlsx
@@ -3687,8 +3687,8 @@
   <sheetPr/>
   <dimension ref="A1:F746"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="F115" sqref="F115"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A337" workbookViewId="0">
+      <selection activeCell="B352" sqref="B352"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5462962962963" defaultRowHeight="13.2" outlineLevelCol="5"/>
@@ -5481,7 +5481,7 @@
         <v>33</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="108" ht="15.6" spans="1:5">
@@ -6440,7 +6440,7 @@
         <v>51</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="165" ht="15.6" spans="1:5">
@@ -6508,7 +6508,7 @@
         <v>52</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="169" ht="15.6" spans="1:5">
@@ -7572,7 +7572,7 @@
         <v>71</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="232" ht="15.6" spans="1:5">
@@ -8878,7 +8878,7 @@
         <v>95</v>
       </c>
       <c r="E309" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="310" ht="15.6" spans="1:5">
@@ -9048,7 +9048,7 @@
         <v>99</v>
       </c>
       <c r="E319" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="320" ht="15.6" spans="1:5">
@@ -9065,7 +9065,7 @@
         <v>99</v>
       </c>
       <c r="E320" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="321" ht="15.6" spans="1:5">

--- a/Coder Army Sheet.xlsx
+++ b/Coder Army Sheet.xlsx
@@ -3687,8 +3687,8 @@
   <sheetPr/>
   <dimension ref="A1:F746"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A337" workbookViewId="0">
-      <selection activeCell="B352" sqref="B352"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A627" workbookViewId="0">
+      <selection activeCell="B635" sqref="B635"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5462962962963" defaultRowHeight="13.2" outlineLevelCol="5"/>
@@ -11106,7 +11106,7 @@
         <v>136</v>
       </c>
       <c r="E442" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="443" ht="15.6" spans="1:5">
@@ -14394,7 +14394,7 @@
         <v>202</v>
       </c>
       <c r="E638" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="639" ht="15.6" spans="1:5">
@@ -14411,7 +14411,7 @@
         <v>202</v>
       </c>
       <c r="E639" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="640" ht="15.6" spans="1:5">
@@ -15312,7 +15312,7 @@
         <v>220</v>
       </c>
       <c r="E692" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="693" ht="15.6" spans="1:5">
@@ -15329,7 +15329,7 @@
         <v>220</v>
       </c>
       <c r="E693" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="694" ht="15.6" spans="1:5">

--- a/Coder Army Sheet.xlsx
+++ b/Coder Army Sheet.xlsx
@@ -3687,8 +3687,8 @@
   <sheetPr/>
   <dimension ref="A1:F746"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A627" workbookViewId="0">
-      <selection activeCell="B635" sqref="B635"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A114" workbookViewId="0">
+      <selection activeCell="B128" sqref="B128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5462962962963" defaultRowHeight="13.2" outlineLevelCol="5"/>
@@ -12223,7 +12223,7 @@
         <v>159</v>
       </c>
       <c r="E509" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="510" ht="15.6" spans="1:5">
@@ -12257,7 +12257,7 @@
         <v>159</v>
       </c>
       <c r="E511" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="512" ht="15.6" spans="1:5">
@@ -13714,7 +13714,7 @@
         <v>189</v>
       </c>
       <c r="E598" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="599" ht="15.6" spans="1:5">
@@ -13833,7 +13833,7 @@
         <v>191</v>
       </c>
       <c r="E605" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="606" ht="15.6" spans="1:5">
@@ -14292,7 +14292,7 @@
         <v>200</v>
       </c>
       <c r="E632" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="633" ht="15.6" spans="1:5">

--- a/Coder Army Sheet.xlsx
+++ b/Coder Army Sheet.xlsx
@@ -3687,8 +3687,8 @@
   <sheetPr/>
   <dimension ref="A1:F746"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A114" workbookViewId="0">
-      <selection activeCell="B128" sqref="B128"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A318" workbookViewId="0">
+      <selection activeCell="E324" sqref="E324"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5462962962963" defaultRowHeight="13.2" outlineLevelCol="5"/>
@@ -9014,7 +9014,7 @@
         <v>98</v>
       </c>
       <c r="E317" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="318" ht="15.6" spans="1:5">
@@ -9082,7 +9082,7 @@
         <v>99</v>
       </c>
       <c r="E321" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="322" ht="15.6" spans="1:5">
@@ -9133,7 +9133,7 @@
         <v>100</v>
       </c>
       <c r="E324" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="325" ht="15.6" spans="1:5">

--- a/Coder Army Sheet.xlsx
+++ b/Coder Army Sheet.xlsx
@@ -3687,8 +3687,8 @@
   <sheetPr/>
   <dimension ref="A1:F746"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A318" workbookViewId="0">
-      <selection activeCell="E324" sqref="E324"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A284" workbookViewId="0">
+      <selection activeCell="E293" sqref="E293"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5462962962963" defaultRowHeight="13.2" outlineLevelCol="5"/>
@@ -10437,7 +10437,7 @@
         <v>124</v>
       </c>
       <c r="E402" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="403" ht="15.6" spans="1:5">
@@ -14870,7 +14870,7 @@
         <v>211</v>
       </c>
       <c r="E666" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="667" ht="15.6" spans="1:5">

--- a/Coder Army Sheet.xlsx
+++ b/Coder Army Sheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9024" tabRatio="500"/>
+    <workbookView windowWidth="23040" windowHeight="8580" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3687,8 +3687,8 @@
   <sheetPr/>
   <dimension ref="A1:F746"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A284" workbookViewId="0">
-      <selection activeCell="E293" sqref="E293"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="E94" sqref="E94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5462962962963" defaultRowHeight="13.2" outlineLevelCol="5"/>
@@ -4998,7 +4998,7 @@
         <v>23</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="79" ht="15.6" spans="1:5">
@@ -5260,7 +5260,7 @@
         <v>29</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="95" ht="15.6" spans="1:5">

--- a/Coder Army Sheet.xlsx
+++ b/Coder Army Sheet.xlsx
@@ -3687,8 +3687,8 @@
   <sheetPr/>
   <dimension ref="A1:F746"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="E94" sqref="E94"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A217" workbookViewId="0">
+      <selection activeCell="B232" sqref="B232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5462962962963" defaultRowHeight="13.2" outlineLevelCol="5"/>
@@ -5447,7 +5447,7 @@
         <v>32</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="106" ht="15.6" spans="1:5">
@@ -5906,7 +5906,7 @@
         <v>40</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F132" s="2"/>
     </row>

--- a/Coder Army Sheet.xlsx
+++ b/Coder Army Sheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="8580" tabRatio="500"/>
+    <workbookView windowWidth="23040" windowHeight="9024" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3687,8 +3687,8 @@
   <sheetPr/>
   <dimension ref="A1:F746"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A217" workbookViewId="0">
-      <selection activeCell="B232" sqref="B232"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A333" workbookViewId="0">
+      <selection activeCell="B347" sqref="B347"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5462962962963" defaultRowHeight="13.2" outlineLevelCol="5"/>
@@ -6970,7 +6970,7 @@
         <v>60</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="196" ht="15.6" spans="1:5">
@@ -7538,7 +7538,7 @@
         <v>71</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="230" ht="15.6" spans="1:5">
@@ -9496,7 +9496,7 @@
         <v>108</v>
       </c>
       <c r="E346" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="347" ht="15.6" spans="1:5">

--- a/Coder Army Sheet.xlsx
+++ b/Coder Army Sheet.xlsx
@@ -3687,8 +3687,8 @@
   <sheetPr/>
   <dimension ref="A1:F746"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A333" workbookViewId="0">
-      <selection activeCell="B347" sqref="B347"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A355" workbookViewId="0">
+      <selection activeCell="D369" sqref="D369"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5462962962963" defaultRowHeight="13.2" outlineLevelCol="5"/>
@@ -9479,7 +9479,7 @@
         <v>108</v>
       </c>
       <c r="E345" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="346" ht="15.6" spans="1:5">
@@ -9513,7 +9513,7 @@
         <v>109</v>
       </c>
       <c r="E347" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="348" ht="15.6" spans="1:5">
@@ -9615,7 +9615,7 @@
         <v>110</v>
       </c>
       <c r="E353" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="354" ht="15.6" spans="1:5">
@@ -9853,7 +9853,7 @@
         <v>114</v>
       </c>
       <c r="E367" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="368" ht="15.6" spans="1:5">

--- a/Coder Army Sheet.xlsx
+++ b/Coder Army Sheet.xlsx
@@ -3687,8 +3687,8 @@
   <sheetPr/>
   <dimension ref="A1:F746"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A355" workbookViewId="0">
-      <selection activeCell="D369" sqref="D369"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A359" workbookViewId="0">
+      <selection activeCell="E377" sqref="E377"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5462962962963" defaultRowHeight="13.2" outlineLevelCol="5"/>
@@ -9269,7 +9269,7 @@
         <v>103</v>
       </c>
       <c r="E332" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="333" ht="15.6" spans="1:5">
@@ -9649,7 +9649,7 @@
         <v>111</v>
       </c>
       <c r="E355" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="356" ht="15.6" spans="1:5">
@@ -9768,7 +9768,7 @@
         <v>112</v>
       </c>
       <c r="E362" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="363" ht="15.6" spans="1:5">
@@ -10023,7 +10023,7 @@
         <v>117</v>
       </c>
       <c r="E377" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="378" ht="15.6" spans="1:5">
@@ -10091,7 +10091,7 @@
         <v>119</v>
       </c>
       <c r="E381" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="382" ht="15.6" spans="1:5">

--- a/Coder Army Sheet.xlsx
+++ b/Coder Army Sheet.xlsx
@@ -3687,8 +3687,8 @@
   <sheetPr/>
   <dimension ref="A1:F746"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A359" workbookViewId="0">
-      <selection activeCell="E377" sqref="E377"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A361" workbookViewId="0">
+      <selection activeCell="B370" sqref="B370"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5462962962963" defaultRowHeight="13.2" outlineLevelCol="5"/>
@@ -9666,7 +9666,7 @@
         <v>111</v>
       </c>
       <c r="E356" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="357" ht="15.6" spans="1:5">
@@ -9785,7 +9785,7 @@
         <v>113</v>
       </c>
       <c r="E363" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="364" ht="15.6" spans="1:5">
@@ -9887,7 +9887,7 @@
         <v>115</v>
       </c>
       <c r="E369" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="370" ht="15.6" spans="1:5">
@@ -9904,7 +9904,7 @@
         <v>115</v>
       </c>
       <c r="E370" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="371" ht="15.6" spans="1:5">

--- a/Coder Army Sheet.xlsx
+++ b/Coder Army Sheet.xlsx
@@ -3687,8 +3687,8 @@
   <sheetPr/>
   <dimension ref="A1:F746"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A361" workbookViewId="0">
-      <selection activeCell="B370" sqref="B370"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A385" workbookViewId="0">
+      <selection activeCell="B397" sqref="B397"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5462962962963" defaultRowHeight="13.2" outlineLevelCol="5"/>
@@ -10284,7 +10284,7 @@
         <v>122</v>
       </c>
       <c r="E393" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="394" ht="15.6" spans="1:5">
@@ -10335,7 +10335,7 @@
         <v>123</v>
       </c>
       <c r="E396" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="397" ht="15.6" spans="1:5">
@@ -10386,7 +10386,7 @@
         <v>123</v>
       </c>
       <c r="E399" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="400" ht="15.6" spans="1:5">
@@ -10471,7 +10471,7 @@
         <v>124</v>
       </c>
       <c r="E404" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="405" ht="15.6" spans="1:5">
@@ -10522,7 +10522,7 @@
         <v>125</v>
       </c>
       <c r="E407" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="408" ht="15.6" spans="1:5">

--- a/Coder Army Sheet.xlsx
+++ b/Coder Army Sheet.xlsx
@@ -3687,8 +3687,8 @@
   <sheetPr/>
   <dimension ref="A1:F746"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A385" workbookViewId="0">
-      <selection activeCell="B397" sqref="B397"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A341" workbookViewId="0">
+      <selection activeCell="F351" sqref="F351"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5462962962963" defaultRowHeight="13.2" outlineLevelCol="5"/>
@@ -9547,7 +9547,7 @@
         <v>109</v>
       </c>
       <c r="E349" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="350" ht="15.6" spans="1:5">

--- a/Coder Army Sheet.xlsx
+++ b/Coder Army Sheet.xlsx
@@ -3687,8 +3687,8 @@
   <sheetPr/>
   <dimension ref="A1:F746"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A341" workbookViewId="0">
-      <selection activeCell="F351" sqref="F351"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A535" workbookViewId="0">
+      <selection activeCell="E543" sqref="E543"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5462962962963" defaultRowHeight="13.2" outlineLevelCol="5"/>
@@ -12790,7 +12790,7 @@
         <v>169</v>
       </c>
       <c r="E543" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="544" ht="15.6" spans="1:5">

--- a/Coder Army Sheet.xlsx
+++ b/Coder Army Sheet.xlsx
@@ -3687,8 +3687,8 @@
   <sheetPr/>
   <dimension ref="A1:F746"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A535" workbookViewId="0">
-      <selection activeCell="E543" sqref="E543"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A135" workbookViewId="0">
+      <selection activeCell="B146" sqref="B146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5462962962963" defaultRowHeight="13.2" outlineLevelCol="5"/>
@@ -4607,7 +4607,7 @@
         <v>16</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="56" ht="15.6" spans="1:5">
@@ -4624,7 +4624,7 @@
         <v>16</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="57" ht="15.6" spans="1:5">

--- a/Coder Army Sheet.xlsx
+++ b/Coder Army Sheet.xlsx
@@ -3687,8 +3687,8 @@
   <sheetPr/>
   <dimension ref="A1:F746"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A135" workbookViewId="0">
-      <selection activeCell="B146" sqref="B146"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A321" workbookViewId="0">
+      <selection activeCell="B327" sqref="B327"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5462962962963" defaultRowHeight="13.2" outlineLevelCol="5"/>
@@ -8963,7 +8963,7 @@
         <v>97</v>
       </c>
       <c r="E314" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="315" ht="15.6" spans="1:5">

--- a/Coder Army Sheet.xlsx
+++ b/Coder Army Sheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2916" uniqueCount="753">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2914" uniqueCount="753">
   <si>
     <t>Hard work Beats Talent When Talent Doesn't work Hard</t>
   </si>
@@ -3687,8 +3687,8 @@
   <sheetPr/>
   <dimension ref="A1:F746"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A321" workbookViewId="0">
-      <selection activeCell="B327" sqref="B327"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5462962962963" defaultRowHeight="13.2" outlineLevelCol="5"/>
@@ -4137,9 +4137,7 @@
       <c r="E27" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F27" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="F27" s="2"/>
     </row>
     <row r="28" ht="15.6" spans="1:5">
       <c r="A28" s="5" t="s">
@@ -4259,9 +4257,7 @@
       <c r="E34" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F34" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="F34" s="2"/>
     </row>
     <row r="35" ht="15.6" spans="1:5">
       <c r="A35" s="5" t="s">

--- a/Coder Army Sheet.xlsx
+++ b/Coder Army Sheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2914" uniqueCount="753">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2913" uniqueCount="753">
   <si>
     <t>Hard work Beats Talent When Talent Doesn't work Hard</t>
   </si>
@@ -79,517 +79,517 @@
     <t>Search Element in Matrix</t>
   </si>
   <si>
+    <t>Find the fine</t>
+  </si>
+  <si>
+    <t>Greater on right side</t>
+  </si>
+  <si>
+    <t>Remove duplicate elements from sorted Array</t>
+  </si>
+  <si>
+    <t>Subarray with given sum</t>
+  </si>
+  <si>
+    <t>Sort an array of 0s, 1s and 2s</t>
+  </si>
+  <si>
+    <t>Equilibrium Point</t>
+  </si>
+  <si>
+    <t>Peak element</t>
+  </si>
+  <si>
+    <t>Find Transition Point</t>
+  </si>
+  <si>
+    <t>Alternate positive and negative numbers</t>
+  </si>
+  <si>
+    <t>Union of Two Sorted Arrays</t>
+  </si>
+  <si>
+    <t>Three way partitioning</t>
+  </si>
+  <si>
+    <t>Frogs and Jumps</t>
+  </si>
+  <si>
+    <t>Min Subsets with Consecutive Numbers</t>
+  </si>
+  <si>
+    <t>Find Missing And Repeating</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Rearrange Array Alternately</t>
+  </si>
+  <si>
+    <t>Pythagorean Triplet</t>
+  </si>
+  <si>
+    <t>Rearrange an array with O(1) extra space</t>
+  </si>
+  <si>
+    <t>Count triplets with sum smaller than X</t>
+  </si>
+  <si>
+    <t>Boolean Matrix</t>
+  </si>
+  <si>
+    <t>Row with max 1s</t>
+  </si>
+  <si>
+    <t>Container With Most Water</t>
+  </si>
+  <si>
+    <t>Maximum Triplet product</t>
+  </si>
+  <si>
+    <t>Coins of Geekland</t>
+  </si>
+  <si>
+    <t>Next Permutation</t>
+  </si>
+  <si>
+    <t>Rotate Image</t>
+  </si>
+  <si>
+    <t>Count Primes</t>
+  </si>
+  <si>
+    <t>Watering Plants</t>
+  </si>
+  <si>
+    <t>Arithmetic Subarrays</t>
+  </si>
+  <si>
+    <t>Majority Element</t>
+  </si>
+  <si>
+    <t>Max Circular Subarray Sum</t>
+  </si>
+  <si>
+    <t>Hard</t>
+  </si>
+  <si>
+    <t>Count the subarrays having product less than k</t>
+  </si>
+  <si>
+    <t>Maximum subset XOR</t>
+  </si>
+  <si>
+    <t>Next Smallest Palindrome</t>
+  </si>
+  <si>
+    <t>Count the number of subarrays</t>
+  </si>
+  <si>
+    <t>Largest rectangle of 1s with swapping of columns allowed</t>
+  </si>
+  <si>
+    <t>N/3 Repeat Number</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>Reverse a String</t>
+  </si>
+  <si>
+    <t>Check if strings are rotations of each other or not</t>
+  </si>
+  <si>
+    <t>Maximum Occuring Character</t>
+  </si>
+  <si>
+    <t>Binary String</t>
+  </si>
+  <si>
+    <t>Anagram of String</t>
+  </si>
+  <si>
+    <t>Merge two strings</t>
+  </si>
+  <si>
+    <t>Reverse words in a given string</t>
+  </si>
+  <si>
+    <t>Palindrome String</t>
+  </si>
+  <si>
+    <t>Longest Common Prefix in an Array</t>
+  </si>
+  <si>
+    <t>Roman Number to Integer</t>
+  </si>
+  <si>
+    <t>Length of Last Word</t>
+  </si>
+  <si>
+    <t>Longest Distinct characters in string</t>
+  </si>
+  <si>
+    <t>Remove all duplicates from a given string</t>
+  </si>
+  <si>
+    <t>Min Number of Flips</t>
+  </si>
+  <si>
+    <t>Meta Strings</t>
+  </si>
+  <si>
+    <t>Smallest window containing 0, 1 and 2</t>
+  </si>
+  <si>
+    <t>Generate Grey Code Sequences</t>
+  </si>
+  <si>
+    <t>Sum of two large numbers</t>
+  </si>
+  <si>
+    <t>Length of the longest substring</t>
+  </si>
+  <si>
+    <t>Longest Prefix Suffix</t>
+  </si>
+  <si>
+    <t>Smallest distinct window</t>
+  </si>
+  <si>
+    <t>Case-specific Sorting of Strings</t>
+  </si>
+  <si>
+    <t>Excel Sheet | Part - 1</t>
+  </si>
+  <si>
+    <t>Transform String</t>
+  </si>
+  <si>
+    <t>Remove and Reverse</t>
+  </si>
+  <si>
+    <t>String formation from substring</t>
+  </si>
+  <si>
+    <t>Minimum Days</t>
+  </si>
+  <si>
+    <t>Remove Consecutive Characters</t>
+  </si>
+  <si>
+    <t>Bulls and Cows</t>
+  </si>
+  <si>
+    <t>Atoi</t>
+  </si>
+  <si>
+    <t>Valid Ip Addresses</t>
+  </si>
+  <si>
+    <t>Integer To Roman</t>
+  </si>
+  <si>
+    <t>Minimum characters to be added at front to make string palindrome</t>
+  </si>
+  <si>
+    <t>Wildcard string matching</t>
+  </si>
+  <si>
+    <t>Longest Palindromic Substring in Linear Time</t>
+  </si>
+  <si>
+    <t>Numbers with one absolute difference</t>
+  </si>
+  <si>
+    <t>Stringoholics</t>
+  </si>
+  <si>
+    <t>Power of 2</t>
+  </si>
+  <si>
+    <t>Justified Text</t>
+  </si>
+  <si>
+    <t>Searching and Sorting</t>
+  </si>
+  <si>
+    <t>Searching an element in a sorted array</t>
+  </si>
+  <si>
+    <t>Last index of One</t>
+  </si>
+  <si>
+    <t>Count the Zeros</t>
+  </si>
+  <si>
+    <t>Elements in the Range</t>
+  </si>
+  <si>
+    <t>Bubble Sort</t>
+  </si>
+  <si>
+    <t>Insertion Sort</t>
+  </si>
+  <si>
+    <t>First and last occurrences of X</t>
+  </si>
+  <si>
+    <t>Count zeros in a sorted matrix</t>
+  </si>
+  <si>
+    <t>Array Subset of another array</t>
+  </si>
+  <si>
+    <t>Selection Sort</t>
+  </si>
+  <si>
+    <t>Floor in a Sorted Array</t>
+  </si>
+  <si>
+    <t>Radix Sort</t>
+  </si>
+  <si>
+    <t>Search in a matrix</t>
+  </si>
+  <si>
+    <t>Bitonic Point</t>
+  </si>
+  <si>
+    <t>Two Repeated Elements</t>
+  </si>
+  <si>
+    <t>Count More than n/k Occurences</t>
+  </si>
+  <si>
+    <t>Number and the Digit Sum</t>
+  </si>
+  <si>
+    <t>Find triplets with zero sum</t>
+  </si>
+  <si>
+    <t>Sort The Array</t>
+  </si>
+  <si>
+    <t>Sort in specific order</t>
+  </si>
+  <si>
+    <t>Sort a String</t>
+  </si>
+  <si>
+    <t>Triplet Family</t>
+  </si>
+  <si>
+    <t>Merge and Sort</t>
+  </si>
+  <si>
+    <t>Merging two unsorted arrays in sorted order</t>
+  </si>
+  <si>
+    <t>Rope Cutting</t>
+  </si>
+  <si>
+    <t>Make array elements unique</t>
+  </si>
+  <si>
+    <t>Kth smallest element</t>
+  </si>
+  <si>
+    <t>Smallest Positive missing number</t>
+  </si>
+  <si>
+    <t>Sort an array according to the other</t>
+  </si>
+  <si>
+    <t>Square root of a number</t>
+  </si>
+  <si>
+    <t>Search in a row-column sorted Matrix</t>
+  </si>
+  <si>
+    <t>Smallest factorial number</t>
+  </si>
+  <si>
+    <t>Merge Sort</t>
+  </si>
+  <si>
+    <t>Quick Sort</t>
+  </si>
+  <si>
+    <t>Count Inversions</t>
+  </si>
+  <si>
+    <t>Find All Four Sum Numbers</t>
+  </si>
+  <si>
+    <t>Minimum Swaps to Sort</t>
+  </si>
+  <si>
+    <t>Number of pairs</t>
+  </si>
+  <si>
+    <t>Sort an Array</t>
+  </si>
+  <si>
+    <t>Sorting Elements of an Array by Frequency</t>
+  </si>
+  <si>
+    <t>Overlapping Intervals</t>
+  </si>
+  <si>
+    <t>Find minimum number of Laptops required</t>
+  </si>
+  <si>
+    <t>LCP</t>
+  </si>
+  <si>
+    <t>Reach a Number</t>
+  </si>
+  <si>
+    <t>Heaters</t>
+  </si>
+  <si>
+    <t>Friends Of Appropriate Ages</t>
+  </si>
+  <si>
+    <t>Koko Eating Bananas</t>
+  </si>
+  <si>
+    <t>3Sum</t>
+  </si>
+  <si>
+    <t>3Sum Closest</t>
+  </si>
+  <si>
+    <t>Nth Digit</t>
+  </si>
+  <si>
+    <t>Sort a 2D vector diagonally</t>
+  </si>
+  <si>
+    <t>Maximum Intersecting Lines</t>
+  </si>
+  <si>
+    <t>Merge Without Extra Space</t>
+  </si>
+  <si>
+    <t>Median of the Subarrays</t>
+  </si>
+  <si>
+    <t>Median of Array</t>
+  </si>
+  <si>
+    <t>Implement Power Function</t>
+  </si>
+  <si>
+    <t>WoodCutting Made Easy!</t>
+  </si>
+  <si>
+    <t>Matrix Median</t>
+  </si>
+  <si>
+    <t>Allocate Books</t>
+  </si>
+  <si>
+    <t>Painter's Partition Problem</t>
+  </si>
+  <si>
+    <t>Red Zone</t>
+  </si>
+  <si>
+    <t>Max Sum of Rectangle No Larger Than K</t>
+  </si>
+  <si>
+    <t>Smallest Good Base</t>
+  </si>
+  <si>
+    <t>House Robber IV</t>
+  </si>
+  <si>
+    <t>Maximum Gap</t>
+  </si>
+  <si>
+    <t>LinkedList</t>
+  </si>
+  <si>
+    <t>Print Linked List elements</t>
+  </si>
+  <si>
+    <t>Linked List Insertion</t>
+  </si>
+  <si>
+    <t>Count nodes of linked list</t>
+  </si>
+  <si>
+    <t>Check If Circular Linked List</t>
+  </si>
+  <si>
+    <t>Identical Linked Lists</t>
+  </si>
+  <si>
+    <t>Insert in a Sorted List</t>
+  </si>
+  <si>
+    <t>Insert in Middle of Linked List</t>
+  </si>
+  <si>
+    <t>Delete node in Doubly Linked List</t>
+  </si>
+  <si>
+    <t>Reverse a Doubly Linked List</t>
+  </si>
+  <si>
+    <t>Delete Alternate Nodes</t>
+  </si>
+  <si>
+    <t>Find the Sum of Last N nodes of the Linked List</t>
+  </si>
+  <si>
+    <t>Find n/k th node in Linked list</t>
+  </si>
+  <si>
+    <t>Detect Loop in linked list</t>
+  </si>
+  <si>
+    <t>Move Last Element to Front of a Linked List</t>
+  </si>
+  <si>
+    <t>Nth node from end of linked list</t>
+  </si>
+  <si>
+    <t>Finding middle element in a linked list</t>
+  </si>
+  <si>
+    <t>Reverse a linked list</t>
+  </si>
+  <si>
+    <t>Remove duplicate element from sorted Linked List</t>
+  </si>
+  <si>
+    <t>Delete without head pointer</t>
+  </si>
+  <si>
+    <t>Remove duplicates from an unsorted linked list</t>
+  </si>
+  <si>
+    <t>Delete a Node in Single Linked List</t>
+  </si>
+  <si>
+    <t>Given a linked list of 0s, 1s and 2s, sort it.</t>
+  </si>
+  <si>
+    <t>Find length of Loop</t>
+  </si>
+  <si>
+    <t>Intersection of two sorted Linked lists</t>
+  </si>
+  <si>
+    <t>Pairwise swap elements of a linked list</t>
+  </si>
+  <si>
     <t>Again</t>
-  </si>
-  <si>
-    <t>Find the fine</t>
-  </si>
-  <si>
-    <t>Greater on right side</t>
-  </si>
-  <si>
-    <t>Remove duplicate elements from sorted Array</t>
-  </si>
-  <si>
-    <t>Subarray with given sum</t>
-  </si>
-  <si>
-    <t>Sort an array of 0s, 1s and 2s</t>
-  </si>
-  <si>
-    <t>Equilibrium Point</t>
-  </si>
-  <si>
-    <t>Peak element</t>
-  </si>
-  <si>
-    <t>Find Transition Point</t>
-  </si>
-  <si>
-    <t>Alternate positive and negative numbers</t>
-  </si>
-  <si>
-    <t>Union of Two Sorted Arrays</t>
-  </si>
-  <si>
-    <t>Three way partitioning</t>
-  </si>
-  <si>
-    <t>Frogs and Jumps</t>
-  </si>
-  <si>
-    <t>Min Subsets with Consecutive Numbers</t>
-  </si>
-  <si>
-    <t>Find Missing And Repeating</t>
-  </si>
-  <si>
-    <t>Medium</t>
-  </si>
-  <si>
-    <t>Rearrange Array Alternately</t>
-  </si>
-  <si>
-    <t>Pythagorean Triplet</t>
-  </si>
-  <si>
-    <t>Rearrange an array with O(1) extra space</t>
-  </si>
-  <si>
-    <t>Count triplets with sum smaller than X</t>
-  </si>
-  <si>
-    <t>Boolean Matrix</t>
-  </si>
-  <si>
-    <t>Row with max 1s</t>
-  </si>
-  <si>
-    <t>Container With Most Water</t>
-  </si>
-  <si>
-    <t>Maximum Triplet product</t>
-  </si>
-  <si>
-    <t>Coins of Geekland</t>
-  </si>
-  <si>
-    <t>Next Permutation</t>
-  </si>
-  <si>
-    <t>Rotate Image</t>
-  </si>
-  <si>
-    <t>Count Primes</t>
-  </si>
-  <si>
-    <t>Watering Plants</t>
-  </si>
-  <si>
-    <t>Arithmetic Subarrays</t>
-  </si>
-  <si>
-    <t>Majority Element</t>
-  </si>
-  <si>
-    <t>Max Circular Subarray Sum</t>
-  </si>
-  <si>
-    <t>Hard</t>
-  </si>
-  <si>
-    <t>Count the subarrays having product less than k</t>
-  </si>
-  <si>
-    <t>Maximum subset XOR</t>
-  </si>
-  <si>
-    <t>Next Smallest Palindrome</t>
-  </si>
-  <si>
-    <t>Count the number of subarrays</t>
-  </si>
-  <si>
-    <t>Largest rectangle of 1s with swapping of columns allowed</t>
-  </si>
-  <si>
-    <t>N/3 Repeat Number</t>
-  </si>
-  <si>
-    <t>String</t>
-  </si>
-  <si>
-    <t>Reverse a String</t>
-  </si>
-  <si>
-    <t>Check if strings are rotations of each other or not</t>
-  </si>
-  <si>
-    <t>Maximum Occuring Character</t>
-  </si>
-  <si>
-    <t>Binary String</t>
-  </si>
-  <si>
-    <t>Anagram of String</t>
-  </si>
-  <si>
-    <t>Merge two strings</t>
-  </si>
-  <si>
-    <t>Reverse words in a given string</t>
-  </si>
-  <si>
-    <t>Palindrome String</t>
-  </si>
-  <si>
-    <t>Longest Common Prefix in an Array</t>
-  </si>
-  <si>
-    <t>Roman Number to Integer</t>
-  </si>
-  <si>
-    <t>Length of Last Word</t>
-  </si>
-  <si>
-    <t>Longest Distinct characters in string</t>
-  </si>
-  <si>
-    <t>Remove all duplicates from a given string</t>
-  </si>
-  <si>
-    <t>Min Number of Flips</t>
-  </si>
-  <si>
-    <t>Meta Strings</t>
-  </si>
-  <si>
-    <t>Smallest window containing 0, 1 and 2</t>
-  </si>
-  <si>
-    <t>Generate Grey Code Sequences</t>
-  </si>
-  <si>
-    <t>Sum of two large numbers</t>
-  </si>
-  <si>
-    <t>Length of the longest substring</t>
-  </si>
-  <si>
-    <t>Longest Prefix Suffix</t>
-  </si>
-  <si>
-    <t>Smallest distinct window</t>
-  </si>
-  <si>
-    <t>Case-specific Sorting of Strings</t>
-  </si>
-  <si>
-    <t>Excel Sheet | Part - 1</t>
-  </si>
-  <si>
-    <t>Transform String</t>
-  </si>
-  <si>
-    <t>Remove and Reverse</t>
-  </si>
-  <si>
-    <t>String formation from substring</t>
-  </si>
-  <si>
-    <t>Minimum Days</t>
-  </si>
-  <si>
-    <t>Remove Consecutive Characters</t>
-  </si>
-  <si>
-    <t>Bulls and Cows</t>
-  </si>
-  <si>
-    <t>Atoi</t>
-  </si>
-  <si>
-    <t>Valid Ip Addresses</t>
-  </si>
-  <si>
-    <t>Integer To Roman</t>
-  </si>
-  <si>
-    <t>Minimum characters to be added at front to make string palindrome</t>
-  </si>
-  <si>
-    <t>Wildcard string matching</t>
-  </si>
-  <si>
-    <t>Longest Palindromic Substring in Linear Time</t>
-  </si>
-  <si>
-    <t>Numbers with one absolute difference</t>
-  </si>
-  <si>
-    <t>Stringoholics</t>
-  </si>
-  <si>
-    <t>Power of 2</t>
-  </si>
-  <si>
-    <t>Justified Text</t>
-  </si>
-  <si>
-    <t>Searching and Sorting</t>
-  </si>
-  <si>
-    <t>Searching an element in a sorted array</t>
-  </si>
-  <si>
-    <t>Last index of One</t>
-  </si>
-  <si>
-    <t>Count the Zeros</t>
-  </si>
-  <si>
-    <t>Elements in the Range</t>
-  </si>
-  <si>
-    <t>Bubble Sort</t>
-  </si>
-  <si>
-    <t>Insertion Sort</t>
-  </si>
-  <si>
-    <t>First and last occurrences of X</t>
-  </si>
-  <si>
-    <t>Count zeros in a sorted matrix</t>
-  </si>
-  <si>
-    <t>Array Subset of another array</t>
-  </si>
-  <si>
-    <t>Selection Sort</t>
-  </si>
-  <si>
-    <t>Floor in a Sorted Array</t>
-  </si>
-  <si>
-    <t>Radix Sort</t>
-  </si>
-  <si>
-    <t>Search in a matrix</t>
-  </si>
-  <si>
-    <t>Bitonic Point</t>
-  </si>
-  <si>
-    <t>Two Repeated Elements</t>
-  </si>
-  <si>
-    <t>Count More than n/k Occurences</t>
-  </si>
-  <si>
-    <t>Number and the Digit Sum</t>
-  </si>
-  <si>
-    <t>Find triplets with zero sum</t>
-  </si>
-  <si>
-    <t>Sort The Array</t>
-  </si>
-  <si>
-    <t>Sort in specific order</t>
-  </si>
-  <si>
-    <t>Sort a String</t>
-  </si>
-  <si>
-    <t>Triplet Family</t>
-  </si>
-  <si>
-    <t>Merge and Sort</t>
-  </si>
-  <si>
-    <t>Merging two unsorted arrays in sorted order</t>
-  </si>
-  <si>
-    <t>Rope Cutting</t>
-  </si>
-  <si>
-    <t>Make array elements unique</t>
-  </si>
-  <si>
-    <t>Kth smallest element</t>
-  </si>
-  <si>
-    <t>Smallest Positive missing number</t>
-  </si>
-  <si>
-    <t>Sort an array according to the other</t>
-  </si>
-  <si>
-    <t>Square root of a number</t>
-  </si>
-  <si>
-    <t>Search in a row-column sorted Matrix</t>
-  </si>
-  <si>
-    <t>Smallest factorial number</t>
-  </si>
-  <si>
-    <t>Merge Sort</t>
-  </si>
-  <si>
-    <t>Quick Sort</t>
-  </si>
-  <si>
-    <t>Count Inversions</t>
-  </si>
-  <si>
-    <t>Find All Four Sum Numbers</t>
-  </si>
-  <si>
-    <t>Minimum Swaps to Sort</t>
-  </si>
-  <si>
-    <t>Number of pairs</t>
-  </si>
-  <si>
-    <t>Sort an Array</t>
-  </si>
-  <si>
-    <t>Sorting Elements of an Array by Frequency</t>
-  </si>
-  <si>
-    <t>Overlapping Intervals</t>
-  </si>
-  <si>
-    <t>Find minimum number of Laptops required</t>
-  </si>
-  <si>
-    <t>LCP</t>
-  </si>
-  <si>
-    <t>Reach a Number</t>
-  </si>
-  <si>
-    <t>Heaters</t>
-  </si>
-  <si>
-    <t>Friends Of Appropriate Ages</t>
-  </si>
-  <si>
-    <t>Koko Eating Bananas</t>
-  </si>
-  <si>
-    <t>3Sum</t>
-  </si>
-  <si>
-    <t>3Sum Closest</t>
-  </si>
-  <si>
-    <t>Nth Digit</t>
-  </si>
-  <si>
-    <t>Sort a 2D vector diagonally</t>
-  </si>
-  <si>
-    <t>Maximum Intersecting Lines</t>
-  </si>
-  <si>
-    <t>Merge Without Extra Space</t>
-  </si>
-  <si>
-    <t>Median of the Subarrays</t>
-  </si>
-  <si>
-    <t>Median of Array</t>
-  </si>
-  <si>
-    <t>Implement Power Function</t>
-  </si>
-  <si>
-    <t>WoodCutting Made Easy!</t>
-  </si>
-  <si>
-    <t>Matrix Median</t>
-  </si>
-  <si>
-    <t>Allocate Books</t>
-  </si>
-  <si>
-    <t>Painter's Partition Problem</t>
-  </si>
-  <si>
-    <t>Red Zone</t>
-  </si>
-  <si>
-    <t>Max Sum of Rectangle No Larger Than K</t>
-  </si>
-  <si>
-    <t>Smallest Good Base</t>
-  </si>
-  <si>
-    <t>House Robber IV</t>
-  </si>
-  <si>
-    <t>Maximum Gap</t>
-  </si>
-  <si>
-    <t>LinkedList</t>
-  </si>
-  <si>
-    <t>Print Linked List elements</t>
-  </si>
-  <si>
-    <t>Linked List Insertion</t>
-  </si>
-  <si>
-    <t>Count nodes of linked list</t>
-  </si>
-  <si>
-    <t>Check If Circular Linked List</t>
-  </si>
-  <si>
-    <t>Identical Linked Lists</t>
-  </si>
-  <si>
-    <t>Insert in a Sorted List</t>
-  </si>
-  <si>
-    <t>Insert in Middle of Linked List</t>
-  </si>
-  <si>
-    <t>Delete node in Doubly Linked List</t>
-  </si>
-  <si>
-    <t>Reverse a Doubly Linked List</t>
-  </si>
-  <si>
-    <t>Delete Alternate Nodes</t>
-  </si>
-  <si>
-    <t>Find the Sum of Last N nodes of the Linked List</t>
-  </si>
-  <si>
-    <t>Find n/k th node in Linked list</t>
-  </si>
-  <si>
-    <t>Detect Loop in linked list</t>
-  </si>
-  <si>
-    <t>Move Last Element to Front of a Linked List</t>
-  </si>
-  <si>
-    <t>Nth node from end of linked list</t>
-  </si>
-  <si>
-    <t>Finding middle element in a linked list</t>
-  </si>
-  <si>
-    <t>Reverse a linked list</t>
-  </si>
-  <si>
-    <t>Remove duplicate element from sorted Linked List</t>
-  </si>
-  <si>
-    <t>Delete without head pointer</t>
-  </si>
-  <si>
-    <t>Remove duplicates from an unsorted linked list</t>
-  </si>
-  <si>
-    <t>Delete a Node in Single Linked List</t>
-  </si>
-  <si>
-    <t>Given a linked list of 0s, 1s and 2s, sort it.</t>
-  </si>
-  <si>
-    <t>Find length of Loop</t>
-  </si>
-  <si>
-    <t>Intersection of two sorted Linked lists</t>
-  </si>
-  <si>
-    <t>Pairwise swap elements of a linked list</t>
   </si>
   <si>
     <t>Sorted insert for circular linked list</t>
@@ -3687,8 +3687,8 @@
   <sheetPr/>
   <dimension ref="A1:F746"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5462962962963" defaultRowHeight="13.2" outlineLevelCol="5"/>
@@ -3896,16 +3896,14 @@
       <c r="E13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="F13" s="2"/>
     </row>
     <row r="14" ht="15.6" spans="1:5">
       <c r="A14" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>10</v>
@@ -3922,7 +3920,7 @@
         <v>8</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>10</v>
@@ -3939,7 +3937,7 @@
         <v>8</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>10</v>
@@ -3956,7 +3954,7 @@
         <v>8</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>10</v>
@@ -3973,7 +3971,7 @@
         <v>8</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>10</v>
@@ -3990,7 +3988,7 @@
         <v>8</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>10</v>
@@ -4007,7 +4005,7 @@
         <v>8</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>10</v>
@@ -4024,7 +4022,7 @@
         <v>8</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>10</v>
@@ -4041,7 +4039,7 @@
         <v>8</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>10</v>
@@ -4058,7 +4056,7 @@
         <v>8</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>10</v>
@@ -4075,7 +4073,7 @@
         <v>8</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>10</v>
@@ -4092,7 +4090,7 @@
         <v>8</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>10</v>
@@ -4109,7 +4107,7 @@
         <v>8</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>10</v>
@@ -4126,10 +4124,10 @@
         <v>8</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D27" s="2">
         <v>6</v>
@@ -4144,10 +4142,10 @@
         <v>8</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D28" s="2">
         <v>7</v>
@@ -4161,10 +4159,10 @@
         <v>8</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D29" s="2">
         <v>7</v>
@@ -4178,10 +4176,10 @@
         <v>8</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D30" s="2">
         <v>7</v>
@@ -4195,10 +4193,10 @@
         <v>8</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D31" s="2">
         <v>7</v>
@@ -4212,10 +4210,10 @@
         <v>8</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D32" s="2">
         <v>7</v>
@@ -4229,10 +4227,10 @@
         <v>8</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D33" s="2">
         <v>7</v>
@@ -4246,10 +4244,10 @@
         <v>8</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D34" s="2">
         <v>8</v>
@@ -4264,10 +4262,10 @@
         <v>8</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D35" s="2">
         <v>8</v>
@@ -4281,10 +4279,10 @@
         <v>8</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D36" s="2">
         <v>8</v>
@@ -4298,10 +4296,10 @@
         <v>8</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D37" s="2">
         <v>9</v>
@@ -4315,10 +4313,10 @@
         <v>8</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D38" s="2">
         <v>9</v>
@@ -4332,10 +4330,10 @@
         <v>8</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D39" s="2">
         <v>10</v>
@@ -4349,10 +4347,10 @@
         <v>8</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D40" s="2">
         <v>10</v>
@@ -4366,10 +4364,10 @@
         <v>8</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D41" s="2">
         <v>10</v>
@@ -4383,10 +4381,10 @@
         <v>8</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D42" s="2">
         <v>11</v>
@@ -4400,10 +4398,10 @@
         <v>8</v>
       </c>
       <c r="B43" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="D43" s="2">
         <v>11</v>
@@ -4417,10 +4415,10 @@
         <v>8</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D44" s="2">
         <v>12</v>
@@ -4434,10 +4432,10 @@
         <v>8</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D45" s="2">
         <v>12</v>
@@ -4451,10 +4449,10 @@
         <v>8</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D46" s="2">
         <v>13</v>
@@ -4468,10 +4466,10 @@
         <v>8</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D47" s="2">
         <v>13</v>
@@ -4485,10 +4483,10 @@
         <v>8</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D48" s="2">
         <v>14</v>
@@ -4502,10 +4500,10 @@
         <v>8</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D49" s="2">
         <v>14</v>
@@ -4523,10 +4521,10 @@
     </row>
     <row r="51" ht="15.6" spans="1:5">
       <c r="A51" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="B51" s="6" t="s">
         <v>60</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>61</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>10</v>
@@ -4540,10 +4538,10 @@
     </row>
     <row r="52" ht="15.6" spans="1:5">
       <c r="A52" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>10</v>
@@ -4557,10 +4555,10 @@
     </row>
     <row r="53" ht="15.6" spans="1:5">
       <c r="A53" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>10</v>
@@ -4574,10 +4572,10 @@
     </row>
     <row r="54" ht="15.6" spans="1:5">
       <c r="A54" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>10</v>
@@ -4591,10 +4589,10 @@
     </row>
     <row r="55" ht="15.6" spans="1:5">
       <c r="A55" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>10</v>
@@ -4608,10 +4606,10 @@
     </row>
     <row r="56" ht="15.6" spans="1:5">
       <c r="A56" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>10</v>
@@ -4625,10 +4623,10 @@
     </row>
     <row r="57" ht="15.6" spans="1:5">
       <c r="A57" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>10</v>
@@ -4642,10 +4640,10 @@
     </row>
     <row r="58" ht="15.6" spans="1:5">
       <c r="A58" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>10</v>
@@ -4659,10 +4657,10 @@
     </row>
     <row r="59" ht="15.6" spans="1:5">
       <c r="A59" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>10</v>
@@ -4676,10 +4674,10 @@
     </row>
     <row r="60" ht="15.6" spans="1:5">
       <c r="A60" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>10</v>
@@ -4693,10 +4691,10 @@
     </row>
     <row r="61" ht="15.6" spans="1:5">
       <c r="A61" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>10</v>
@@ -4710,10 +4708,10 @@
     </row>
     <row r="62" ht="15.6" spans="1:5">
       <c r="A62" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>10</v>
@@ -4727,10 +4725,10 @@
     </row>
     <row r="63" ht="15.6" spans="1:5">
       <c r="A63" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>10</v>
@@ -4744,10 +4742,10 @@
     </row>
     <row r="64" ht="15.6" spans="1:5">
       <c r="A64" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>10</v>
@@ -4761,10 +4759,10 @@
     </row>
     <row r="65" ht="15.6" spans="1:5">
       <c r="A65" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>10</v>
@@ -4778,10 +4776,10 @@
     </row>
     <row r="66" ht="15.6" spans="1:5">
       <c r="A66" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>10</v>
@@ -4795,10 +4793,10 @@
     </row>
     <row r="67" ht="15.6" spans="1:5">
       <c r="A67" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>10</v>
@@ -4812,13 +4810,13 @@
     </row>
     <row r="68" ht="15.6" spans="1:5">
       <c r="A68" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D68" s="2">
         <v>20</v>
@@ -4829,13 +4827,13 @@
     </row>
     <row r="69" ht="15.6" spans="1:5">
       <c r="A69" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D69" s="2">
         <v>20</v>
@@ -4846,13 +4844,13 @@
     </row>
     <row r="70" ht="15.6" spans="1:5">
       <c r="A70" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D70" s="2">
         <v>20</v>
@@ -4863,13 +4861,13 @@
     </row>
     <row r="71" ht="15.6" spans="1:5">
       <c r="A71" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D71" s="2">
         <v>21</v>
@@ -4880,13 +4878,13 @@
     </row>
     <row r="72" ht="15.6" spans="1:5">
       <c r="A72" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D72" s="2">
         <v>21</v>
@@ -4897,13 +4895,13 @@
     </row>
     <row r="73" ht="15.6" spans="1:5">
       <c r="A73" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D73" s="2">
         <v>21</v>
@@ -4914,13 +4912,13 @@
     </row>
     <row r="74" ht="15.6" spans="1:5">
       <c r="A74" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D74" s="2">
         <v>22</v>
@@ -4931,13 +4929,13 @@
     </row>
     <row r="75" ht="15.6" spans="1:5">
       <c r="A75" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D75" s="2">
         <v>22</v>
@@ -4948,13 +4946,13 @@
     </row>
     <row r="76" ht="15.6" spans="1:5">
       <c r="A76" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D76" s="2">
         <v>22</v>
@@ -4965,13 +4963,13 @@
     </row>
     <row r="77" ht="15.6" spans="1:5">
       <c r="A77" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D77" s="2">
         <v>23</v>
@@ -4982,13 +4980,13 @@
     </row>
     <row r="78" ht="15.6" spans="1:5">
       <c r="A78" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B78" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D78" s="2">
         <v>23</v>
@@ -4999,13 +4997,13 @@
     </row>
     <row r="79" ht="15.6" spans="1:5">
       <c r="A79" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B79" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D79" s="2">
         <v>23</v>
@@ -5016,13 +5014,13 @@
     </row>
     <row r="80" ht="15.6" spans="1:5">
       <c r="A80" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B80" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D80" s="2">
         <v>24</v>
@@ -5033,13 +5031,13 @@
     </row>
     <row r="81" ht="15.6" spans="1:5">
       <c r="A81" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B81" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D81" s="2">
         <v>24</v>
@@ -5050,13 +5048,13 @@
     </row>
     <row r="82" ht="15.6" spans="1:5">
       <c r="A82" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B82" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D82" s="2">
         <v>25</v>
@@ -5067,13 +5065,13 @@
     </row>
     <row r="83" ht="15.6" spans="1:5">
       <c r="A83" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B83" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D83" s="2">
         <v>25</v>
@@ -5084,13 +5082,13 @@
     </row>
     <row r="84" ht="15.6" spans="1:5">
       <c r="A84" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D84" s="2">
         <v>26</v>
@@ -5101,13 +5099,13 @@
     </row>
     <row r="85" ht="15.6" spans="1:5">
       <c r="A85" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D85" s="2">
         <v>26</v>
@@ -5118,13 +5116,13 @@
     </row>
     <row r="86" ht="15.6" spans="1:5">
       <c r="A86" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D86" s="2">
         <v>27</v>
@@ -5135,13 +5133,13 @@
     </row>
     <row r="87" ht="15.6" spans="1:5">
       <c r="A87" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B87" s="15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D87" s="2">
         <v>27</v>
@@ -5152,13 +5150,13 @@
     </row>
     <row r="88" ht="15.6" spans="1:5">
       <c r="A88" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B88" s="15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D88" s="2">
         <v>28</v>
@@ -5169,13 +5167,13 @@
     </row>
     <row r="89" ht="15.6" spans="1:5">
       <c r="A89" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B89" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D89" s="2">
         <v>28</v>
@@ -5193,10 +5191,10 @@
     </row>
     <row r="91" ht="15.6" spans="1:5">
       <c r="A91" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="B91" s="6" t="s">
         <v>100</v>
-      </c>
-      <c r="B91" s="6" t="s">
-        <v>101</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>10</v>
@@ -5210,10 +5208,10 @@
     </row>
     <row r="92" ht="15.6" spans="1:5">
       <c r="A92" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>10</v>
@@ -5227,10 +5225,10 @@
     </row>
     <row r="93" ht="15.6" spans="1:5">
       <c r="A93" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>10</v>
@@ -5244,10 +5242,10 @@
     </row>
     <row r="94" ht="15.6" spans="1:5">
       <c r="A94" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>10</v>
@@ -5261,10 +5259,10 @@
     </row>
     <row r="95" ht="15.6" spans="1:5">
       <c r="A95" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>10</v>
@@ -5278,10 +5276,10 @@
     </row>
     <row r="96" ht="15.6" spans="1:5">
       <c r="A96" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>10</v>
@@ -5295,10 +5293,10 @@
     </row>
     <row r="97" ht="15.6" spans="1:5">
       <c r="A97" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>10</v>
@@ -5312,10 +5310,10 @@
     </row>
     <row r="98" ht="15.6" spans="1:5">
       <c r="A98" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>10</v>
@@ -5329,10 +5327,10 @@
     </row>
     <row r="99" ht="15.6" spans="1:5">
       <c r="A99" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>10</v>
@@ -5346,10 +5344,10 @@
     </row>
     <row r="100" ht="15.6" spans="1:5">
       <c r="A100" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>10</v>
@@ -5363,10 +5361,10 @@
     </row>
     <row r="101" ht="15.6" spans="1:5">
       <c r="A101" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>10</v>
@@ -5380,10 +5378,10 @@
     </row>
     <row r="102" ht="15.6" spans="1:5">
       <c r="A102" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>10</v>
@@ -5397,10 +5395,10 @@
     </row>
     <row r="103" ht="15.6" spans="1:5">
       <c r="A103" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>10</v>
@@ -5414,10 +5412,10 @@
     </row>
     <row r="104" ht="15.6" spans="1:5">
       <c r="A104" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>10</v>
@@ -5431,10 +5429,10 @@
     </row>
     <row r="105" ht="15.6" spans="1:5">
       <c r="A105" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>10</v>
@@ -5448,10 +5446,10 @@
     </row>
     <row r="106" ht="15.6" spans="1:5">
       <c r="A106" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>10</v>
@@ -5465,10 +5463,10 @@
     </row>
     <row r="107" ht="15.6" spans="1:5">
       <c r="A107" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>10</v>
@@ -5482,10 +5480,10 @@
     </row>
     <row r="108" ht="15.6" spans="1:5">
       <c r="A108" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>10</v>
@@ -5499,10 +5497,10 @@
     </row>
     <row r="109" ht="15.6" spans="1:5">
       <c r="A109" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>10</v>
@@ -5516,10 +5514,10 @@
     </row>
     <row r="110" ht="15.6" spans="1:5">
       <c r="A110" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>10</v>
@@ -5533,10 +5531,10 @@
     </row>
     <row r="111" ht="15.6" spans="1:5">
       <c r="A111" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>10</v>
@@ -5550,10 +5548,10 @@
     </row>
     <row r="112" ht="15.6" spans="1:5">
       <c r="A112" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>10</v>
@@ -5567,10 +5565,10 @@
     </row>
     <row r="113" ht="15.6" spans="1:5">
       <c r="A113" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>10</v>
@@ -5584,10 +5582,10 @@
     </row>
     <row r="114" ht="15.6" spans="1:5">
       <c r="A114" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>10</v>
@@ -5601,10 +5599,10 @@
     </row>
     <row r="115" ht="15.6" spans="1:5">
       <c r="A115" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>10</v>
@@ -5618,10 +5616,10 @@
     </row>
     <row r="116" ht="15.6" spans="1:5">
       <c r="A116" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>10</v>
@@ -5635,13 +5633,13 @@
     </row>
     <row r="117" ht="15.6" spans="1:5">
       <c r="A117" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D117" s="2">
         <v>35</v>
@@ -5652,13 +5650,13 @@
     </row>
     <row r="118" ht="15.6" spans="1:5">
       <c r="A118" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D118" s="2">
         <v>35</v>
@@ -5669,13 +5667,13 @@
     </row>
     <row r="119" ht="15.6" spans="1:5">
       <c r="A119" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D119" s="2">
         <v>36</v>
@@ -5686,13 +5684,13 @@
     </row>
     <row r="120" ht="15.6" spans="1:5">
       <c r="A120" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D120" s="2">
         <v>36</v>
@@ -5703,13 +5701,13 @@
     </row>
     <row r="121" ht="15.6" spans="1:5">
       <c r="A121" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D121" s="2">
         <v>36</v>
@@ -5720,13 +5718,13 @@
     </row>
     <row r="122" ht="15.6" spans="1:5">
       <c r="A122" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D122" s="2">
         <v>37</v>
@@ -5737,13 +5735,13 @@
     </row>
     <row r="123" ht="15.6" spans="1:5">
       <c r="A123" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D123" s="2">
         <v>37</v>
@@ -5754,13 +5752,13 @@
     </row>
     <row r="124" ht="15.6" spans="1:5">
       <c r="A124" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D124" s="2">
         <v>37</v>
@@ -5771,13 +5769,13 @@
     </row>
     <row r="125" ht="15.6" spans="1:5">
       <c r="A125" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D125" s="2">
         <v>38</v>
@@ -5788,13 +5786,13 @@
     </row>
     <row r="126" ht="15.6" spans="1:5">
       <c r="A126" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D126" s="2">
         <v>38</v>
@@ -5805,13 +5803,13 @@
     </row>
     <row r="127" ht="15.6" spans="1:5">
       <c r="A127" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D127" s="2">
         <v>38</v>
@@ -5822,13 +5820,13 @@
     </row>
     <row r="128" ht="15.6" spans="1:5">
       <c r="A128" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D128" s="2">
         <v>39</v>
@@ -5839,13 +5837,13 @@
     </row>
     <row r="129" ht="15.6" spans="1:5">
       <c r="A129" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B129" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D129" s="2">
         <v>39</v>
@@ -5856,13 +5854,13 @@
     </row>
     <row r="130" ht="15.6" spans="1:5">
       <c r="A130" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D130" s="2">
         <v>39</v>
@@ -5873,13 +5871,13 @@
     </row>
     <row r="131" ht="15.6" spans="1:5">
       <c r="A131" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D131" s="2">
         <v>40</v>
@@ -5890,13 +5888,13 @@
     </row>
     <row r="132" ht="15.6" spans="1:6">
       <c r="A132" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D132" s="2">
         <v>40</v>
@@ -5908,13 +5906,13 @@
     </row>
     <row r="133" ht="15.6" spans="1:5">
       <c r="A133" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D133" s="2">
         <v>40</v>
@@ -5925,13 +5923,13 @@
     </row>
     <row r="134" ht="15.6" spans="1:5">
       <c r="A134" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B134" s="13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D134" s="2">
         <v>41</v>
@@ -5942,13 +5940,13 @@
     </row>
     <row r="135" ht="15.6" spans="1:5">
       <c r="A135" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B135" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D135" s="2">
         <v>41</v>
@@ -5959,13 +5957,13 @@
     </row>
     <row r="136" ht="15.6" spans="1:5">
       <c r="A136" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B136" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D136" s="2">
         <v>41</v>
@@ -5976,13 +5974,13 @@
     </row>
     <row r="137" ht="15.6" spans="1:5">
       <c r="A137" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B137" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D137" s="2">
         <v>42</v>
@@ -5993,13 +5991,13 @@
     </row>
     <row r="138" ht="15.6" spans="1:5">
       <c r="A138" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B138" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D138" s="2">
         <v>42</v>
@@ -6010,13 +6008,13 @@
     </row>
     <row r="139" ht="15.6" spans="1:5">
       <c r="A139" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B139" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D139" s="2">
         <v>42</v>
@@ -6027,13 +6025,13 @@
     </row>
     <row r="140" ht="15.6" spans="1:5">
       <c r="A140" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B140" s="13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D140" s="2">
         <v>42</v>
@@ -6044,13 +6042,13 @@
     </row>
     <row r="141" ht="15.6" spans="1:5">
       <c r="A141" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D141" s="2">
         <v>43</v>
@@ -6061,13 +6059,13 @@
     </row>
     <row r="142" ht="15.6" spans="1:5">
       <c r="A142" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D142" s="2">
         <v>43</v>
@@ -6078,13 +6076,13 @@
     </row>
     <row r="143" ht="15.6" spans="1:5">
       <c r="A143" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D143" s="2">
         <v>43</v>
@@ -6095,13 +6093,13 @@
     </row>
     <row r="144" ht="15.6" spans="1:5">
       <c r="A144" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D144" s="2">
         <v>44</v>
@@ -6112,13 +6110,13 @@
     </row>
     <row r="145" ht="15.6" spans="1:5">
       <c r="A145" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B145" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D145" s="2">
         <v>44</v>
@@ -6129,13 +6127,13 @@
     </row>
     <row r="146" ht="15.6" spans="1:5">
       <c r="A146" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B146" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D146" s="2">
         <v>45</v>
@@ -6146,13 +6144,13 @@
     </row>
     <row r="147" ht="15.6" spans="1:5">
       <c r="A147" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B147" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D147" s="2">
         <v>45</v>
@@ -6163,13 +6161,13 @@
     </row>
     <row r="148" ht="15.6" spans="1:5">
       <c r="A148" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B148" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D148" s="2">
         <v>46</v>
@@ -6180,13 +6178,13 @@
     </row>
     <row r="149" ht="15.6" spans="1:5">
       <c r="A149" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B149" s="15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D149" s="2">
         <v>46</v>
@@ -6197,13 +6195,13 @@
     </row>
     <row r="150" ht="15.6" spans="1:5">
       <c r="A150" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B150" s="15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D150" s="2">
         <v>47</v>
@@ -6214,13 +6212,13 @@
     </row>
     <row r="151" ht="15.6" spans="1:5">
       <c r="A151" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B151" s="15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D151" s="2">
         <v>47</v>
@@ -6231,13 +6229,13 @@
     </row>
     <row r="152" ht="15.6" spans="1:5">
       <c r="A152" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B152" s="13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D152" s="2">
         <v>48</v>
@@ -6248,13 +6246,13 @@
     </row>
     <row r="153" ht="15.6" spans="1:5">
       <c r="A153" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B153" s="13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D153" s="2">
         <v>48</v>
@@ -6265,13 +6263,13 @@
     </row>
     <row r="154" ht="15.6" spans="1:5">
       <c r="A154" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B154" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D154" s="2">
         <v>49</v>
@@ -6282,13 +6280,13 @@
     </row>
     <row r="155" ht="15.6" spans="1:5">
       <c r="A155" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B155" s="13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D155" s="2">
         <v>49</v>
@@ -6305,10 +6303,10 @@
     </row>
     <row r="157" ht="15.6" spans="1:5">
       <c r="A157" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="B157" s="6" t="s">
         <v>166</v>
-      </c>
-      <c r="B157" s="6" t="s">
-        <v>167</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>10</v>
@@ -6322,10 +6320,10 @@
     </row>
     <row r="158" ht="15.6" spans="1:5">
       <c r="A158" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>10</v>
@@ -6339,10 +6337,10 @@
     </row>
     <row r="159" ht="15.6" spans="1:5">
       <c r="A159" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>10</v>
@@ -6356,10 +6354,10 @@
     </row>
     <row r="160" ht="15.6" spans="1:5">
       <c r="A160" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>10</v>
@@ -6373,10 +6371,10 @@
     </row>
     <row r="161" ht="15.6" spans="1:5">
       <c r="A161" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>10</v>
@@ -6390,10 +6388,10 @@
     </row>
     <row r="162" ht="15.6" spans="1:5">
       <c r="A162" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>10</v>
@@ -6407,10 +6405,10 @@
     </row>
     <row r="163" ht="15.6" spans="1:5">
       <c r="A163" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>10</v>
@@ -6424,10 +6422,10 @@
     </row>
     <row r="164" ht="15.6" spans="1:5">
       <c r="A164" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>10</v>
@@ -6441,10 +6439,10 @@
     </row>
     <row r="165" ht="15.6" spans="1:5">
       <c r="A165" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>10</v>
@@ -6458,10 +6456,10 @@
     </row>
     <row r="166" ht="15.6" spans="1:5">
       <c r="A166" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>10</v>
@@ -6475,10 +6473,10 @@
     </row>
     <row r="167" ht="15.6" spans="1:5">
       <c r="A167" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>10</v>
@@ -6492,10 +6490,10 @@
     </row>
     <row r="168" ht="15.6" spans="1:5">
       <c r="A168" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>10</v>
@@ -6509,10 +6507,10 @@
     </row>
     <row r="169" ht="15.6" spans="1:5">
       <c r="A169" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>10</v>
@@ -6526,10 +6524,10 @@
     </row>
     <row r="170" ht="15.6" spans="1:5">
       <c r="A170" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>10</v>
@@ -6543,10 +6541,10 @@
     </row>
     <row r="171" ht="15.6" spans="1:5">
       <c r="A171" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>10</v>
@@ -6560,10 +6558,10 @@
     </row>
     <row r="172" ht="15.6" spans="1:5">
       <c r="A172" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>10</v>
@@ -6577,10 +6575,10 @@
     </row>
     <row r="173" ht="15.6" spans="1:5">
       <c r="A173" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>10</v>
@@ -6594,10 +6592,10 @@
     </row>
     <row r="174" ht="15.6" spans="1:5">
       <c r="A174" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>10</v>
@@ -6611,10 +6609,10 @@
     </row>
     <row r="175" ht="15.6" spans="1:5">
       <c r="A175" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>10</v>
@@ -6628,10 +6626,10 @@
     </row>
     <row r="176" ht="15.6" spans="1:5">
       <c r="A176" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B176" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>10</v>
@@ -6645,10 +6643,10 @@
     </row>
     <row r="177" ht="15.6" spans="1:5">
       <c r="A177" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>10</v>
@@ -6662,10 +6660,10 @@
     </row>
     <row r="178" ht="15.6" spans="1:5">
       <c r="A178" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B178" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>10</v>
@@ -6679,10 +6677,10 @@
     </row>
     <row r="179" ht="15.6" spans="1:5">
       <c r="A179" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>10</v>
@@ -6696,10 +6694,10 @@
     </row>
     <row r="180" ht="15.6" spans="1:5">
       <c r="A180" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>10</v>
@@ -6713,10 +6711,10 @@
     </row>
     <row r="181" ht="15.6" spans="1:6">
       <c r="A181" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>10</v>
@@ -6728,12 +6726,12 @@
         <v>11</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>21</v>
+        <v>191</v>
       </c>
     </row>
     <row r="182" ht="15.6" spans="1:5">
       <c r="A182" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B182" s="6" t="s">
         <v>192</v>
@@ -6750,7 +6748,7 @@
     </row>
     <row r="183" ht="15.6" spans="1:5">
       <c r="A183" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B183" s="6" t="s">
         <v>193</v>
@@ -6767,7 +6765,7 @@
     </row>
     <row r="184" ht="15.6" spans="1:5">
       <c r="A184" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B184" s="6" t="s">
         <v>194</v>
@@ -6784,7 +6782,7 @@
     </row>
     <row r="185" ht="15.6" spans="1:5">
       <c r="A185" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B185" s="6" t="s">
         <v>195</v>
@@ -6801,7 +6799,7 @@
     </row>
     <row r="186" ht="15.6" spans="1:5">
       <c r="A186" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B186" s="6" t="s">
         <v>196</v>
@@ -6818,7 +6816,7 @@
     </row>
     <row r="187" ht="15.6" spans="1:5">
       <c r="A187" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B187" s="6" t="s">
         <v>197</v>
@@ -6835,7 +6833,7 @@
     </row>
     <row r="188" ht="15.6" spans="1:5">
       <c r="A188" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B188" s="6" t="s">
         <v>198</v>
@@ -6852,13 +6850,13 @@
     </row>
     <row r="189" ht="15.6" spans="1:5">
       <c r="A189" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B189" s="6" t="s">
         <v>199</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D189" s="2">
         <v>58</v>
@@ -6869,13 +6867,13 @@
     </row>
     <row r="190" ht="15.6" spans="1:5">
       <c r="A190" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B190" s="6" t="s">
         <v>200</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D190" s="2">
         <v>58</v>
@@ -6886,13 +6884,13 @@
     </row>
     <row r="191" ht="15.6" spans="1:5">
       <c r="A191" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B191" s="6" t="s">
         <v>201</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D191" s="2">
         <v>58</v>
@@ -6903,13 +6901,13 @@
     </row>
     <row r="192" ht="15.6" spans="1:5">
       <c r="A192" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B192" s="6" t="s">
         <v>202</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D192" s="2">
         <v>59</v>
@@ -6920,13 +6918,13 @@
     </row>
     <row r="193" ht="15.6" spans="1:5">
       <c r="A193" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B193" s="6" t="s">
         <v>203</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D193" s="2">
         <v>59</v>
@@ -6937,13 +6935,13 @@
     </row>
     <row r="194" ht="15.6" spans="1:5">
       <c r="A194" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B194" s="6" t="s">
         <v>204</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D194" s="2">
         <v>59</v>
@@ -6954,13 +6952,13 @@
     </row>
     <row r="195" ht="15.6" spans="1:5">
       <c r="A195" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B195" s="6" t="s">
         <v>205</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D195" s="2">
         <v>60</v>
@@ -6971,13 +6969,13 @@
     </row>
     <row r="196" ht="15.6" spans="1:5">
       <c r="A196" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B196" s="6" t="s">
         <v>206</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D196" s="2">
         <v>60</v>
@@ -6988,13 +6986,13 @@
     </row>
     <row r="197" ht="15.6" spans="1:5">
       <c r="A197" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B197" s="6" t="s">
         <v>207</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D197" s="2">
         <v>60</v>
@@ -7005,13 +7003,13 @@
     </row>
     <row r="198" ht="15.6" spans="1:5">
       <c r="A198" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B198" s="6" t="s">
         <v>208</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D198" s="2">
         <v>61</v>
@@ -7022,13 +7020,13 @@
     </row>
     <row r="199" ht="15.6" spans="1:5">
       <c r="A199" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B199" s="6" t="s">
         <v>209</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D199" s="2">
         <v>61</v>
@@ -7039,13 +7037,13 @@
     </row>
     <row r="200" ht="15.6" spans="1:5">
       <c r="A200" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B200" s="6" t="s">
         <v>210</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D200" s="2">
         <v>61</v>
@@ -7056,13 +7054,13 @@
     </row>
     <row r="201" ht="15.6" spans="1:5">
       <c r="A201" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B201" s="6" t="s">
         <v>211</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D201" s="2">
         <v>62</v>
@@ -7073,13 +7071,13 @@
     </row>
     <row r="202" ht="15.6" spans="1:5">
       <c r="A202" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B202" s="6" t="s">
         <v>212</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D202" s="2">
         <v>62</v>
@@ -7090,13 +7088,13 @@
     </row>
     <row r="203" ht="15.6" spans="1:5">
       <c r="A203" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B203" s="6" t="s">
         <v>213</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D203" s="2">
         <v>62</v>
@@ -7107,13 +7105,13 @@
     </row>
     <row r="204" ht="15.6" spans="1:5">
       <c r="A204" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B204" s="6" t="s">
         <v>214</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D204" s="2">
         <v>63</v>
@@ -7124,13 +7122,13 @@
     </row>
     <row r="205" ht="15.6" spans="1:5">
       <c r="A205" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B205" s="15" t="s">
         <v>215</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D205" s="2">
         <v>63</v>
@@ -7141,13 +7139,13 @@
     </row>
     <row r="206" ht="15.6" spans="1:5">
       <c r="A206" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B206" s="13" t="s">
         <v>216</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D206" s="2">
         <v>63</v>
@@ -7158,13 +7156,13 @@
     </row>
     <row r="207" ht="15.6" spans="1:5">
       <c r="A207" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B207" s="13" t="s">
         <v>217</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D207" s="2">
         <v>64</v>
@@ -7175,13 +7173,13 @@
     </row>
     <row r="208" ht="15.6" spans="1:5">
       <c r="A208" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B208" s="13" t="s">
         <v>218</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D208" s="2">
         <v>64</v>
@@ -7192,13 +7190,13 @@
     </row>
     <row r="209" ht="15.6" spans="1:5">
       <c r="A209" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B209" s="6" t="s">
         <v>219</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D209" s="2">
         <v>64</v>
@@ -7209,13 +7207,13 @@
     </row>
     <row r="210" ht="15.6" spans="1:5">
       <c r="A210" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B210" s="6" t="s">
         <v>220</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D210" s="2">
         <v>65</v>
@@ -7226,13 +7224,13 @@
     </row>
     <row r="211" ht="15.6" spans="1:5">
       <c r="A211" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B211" s="6" t="s">
         <v>221</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D211" s="2">
         <v>65</v>
@@ -7243,13 +7241,13 @@
     </row>
     <row r="212" ht="15.6" spans="1:5">
       <c r="A212" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B212" s="10" t="s">
         <v>222</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D212" s="2">
         <v>66</v>
@@ -7260,13 +7258,13 @@
     </row>
     <row r="213" ht="15.6" spans="1:5">
       <c r="A213" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B213" s="13" t="s">
         <v>223</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D213" s="2">
         <v>66</v>
@@ -7277,13 +7275,13 @@
     </row>
     <row r="214" ht="15.6" spans="1:5">
       <c r="A214" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B214" s="10" t="s">
         <v>224</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D214" s="2">
         <v>67</v>
@@ -7294,13 +7292,13 @@
     </row>
     <row r="215" ht="15.6" spans="1:5">
       <c r="A215" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B215" s="6" t="s">
         <v>225</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D215" s="2">
         <v>67</v>
@@ -7579,7 +7577,7 @@
         <v>242</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D232" s="2">
         <v>71</v>
@@ -7596,7 +7594,7 @@
         <v>243</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D233" s="2">
         <v>72</v>
@@ -7613,7 +7611,7 @@
         <v>244</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D234" s="2">
         <v>72</v>
@@ -7630,7 +7628,7 @@
         <v>245</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D235" s="2">
         <v>72</v>
@@ -7647,7 +7645,7 @@
         <v>246</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D236" s="2">
         <v>73</v>
@@ -7664,7 +7662,7 @@
         <v>247</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D237" s="2">
         <v>73</v>
@@ -7681,7 +7679,7 @@
         <v>248</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D238" s="2">
         <v>73</v>
@@ -7698,7 +7696,7 @@
         <v>249</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D239" s="2">
         <v>74</v>
@@ -7715,7 +7713,7 @@
         <v>250</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D240" s="2">
         <v>74</v>
@@ -7732,7 +7730,7 @@
         <v>251</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D241" s="2">
         <v>74</v>
@@ -7749,7 +7747,7 @@
         <v>252</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D242" s="2">
         <v>75</v>
@@ -7766,7 +7764,7 @@
         <v>253</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D243" s="2">
         <v>75</v>
@@ -7783,7 +7781,7 @@
         <v>254</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D244" s="2">
         <v>75</v>
@@ -7800,7 +7798,7 @@
         <v>255</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D245" s="2">
         <v>76</v>
@@ -7817,7 +7815,7 @@
         <v>256</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D246" s="2">
         <v>76</v>
@@ -7834,7 +7832,7 @@
         <v>257</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D247" s="2">
         <v>77</v>
@@ -7851,7 +7849,7 @@
         <v>258</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D248" s="2">
         <v>77</v>
@@ -7868,7 +7866,7 @@
         <v>259</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D249" s="2">
         <v>78</v>
@@ -7885,7 +7883,7 @@
         <v>260</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D250" s="2">
         <v>78</v>
@@ -7902,7 +7900,7 @@
         <v>261</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D251" s="2">
         <v>79</v>
@@ -7919,7 +7917,7 @@
         <v>262</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D252" s="2">
         <v>79</v>
@@ -7936,7 +7934,7 @@
         <v>263</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D253" s="2">
         <v>80</v>
@@ -7953,7 +7951,7 @@
         <v>264</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D254" s="2">
         <v>80</v>
@@ -7970,7 +7968,7 @@
         <v>265</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D255" s="2">
         <v>81</v>
@@ -8215,7 +8213,7 @@
         <v>280</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D270" s="2">
         <v>84</v>
@@ -8232,7 +8230,7 @@
         <v>281</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D271" s="2">
         <v>85</v>
@@ -8249,7 +8247,7 @@
         <v>282</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D272" s="2">
         <v>85</v>
@@ -8266,7 +8264,7 @@
         <v>283</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D273" s="2">
         <v>85</v>
@@ -8283,7 +8281,7 @@
         <v>284</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D274" s="2">
         <v>86</v>
@@ -8300,7 +8298,7 @@
         <v>285</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D275" s="2">
         <v>86</v>
@@ -8317,7 +8315,7 @@
         <v>286</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D276" s="2">
         <v>86</v>
@@ -8334,7 +8332,7 @@
         <v>287</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D277" s="2">
         <v>87</v>
@@ -8351,7 +8349,7 @@
         <v>288</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D278" s="2">
         <v>87</v>
@@ -8368,7 +8366,7 @@
         <v>289</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D279" s="2">
         <v>88</v>
@@ -8385,7 +8383,7 @@
         <v>290</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D280" s="2">
         <v>88</v>
@@ -8868,7 +8866,7 @@
         <v>319</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D309" s="2">
         <v>95</v>
@@ -8885,7 +8883,7 @@
         <v>320</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D310" s="2">
         <v>96</v>
@@ -8902,7 +8900,7 @@
         <v>321</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D311" s="2">
         <v>96</v>
@@ -8919,7 +8917,7 @@
         <v>322</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D312" s="2">
         <v>96</v>
@@ -8936,7 +8934,7 @@
         <v>323</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D313" s="2">
         <v>97</v>
@@ -8953,7 +8951,7 @@
         <v>324</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D314" s="2">
         <v>97</v>
@@ -8970,7 +8968,7 @@
         <v>325</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D315" s="2">
         <v>97</v>
@@ -8987,7 +8985,7 @@
         <v>326</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D316" s="2">
         <v>98</v>
@@ -9004,7 +9002,7 @@
         <v>327</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D317" s="2">
         <v>98</v>
@@ -9021,7 +9019,7 @@
         <v>328</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D318" s="2">
         <v>98</v>
@@ -9038,7 +9036,7 @@
         <v>329</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D319" s="2">
         <v>99</v>
@@ -9055,7 +9053,7 @@
         <v>330</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D320" s="2">
         <v>99</v>
@@ -9072,7 +9070,7 @@
         <v>331</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D321" s="2">
         <v>99</v>
@@ -9089,7 +9087,7 @@
         <v>332</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D322" s="2">
         <v>100</v>
@@ -9106,7 +9104,7 @@
         <v>333</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D323" s="2">
         <v>100</v>
@@ -9123,7 +9121,7 @@
         <v>334</v>
       </c>
       <c r="C324" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D324" s="2">
         <v>100</v>
@@ -9140,7 +9138,7 @@
         <v>335</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D325" s="2">
         <v>101</v>
@@ -9157,7 +9155,7 @@
         <v>336</v>
       </c>
       <c r="C326" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D326" s="2">
         <v>101</v>
@@ -9174,7 +9172,7 @@
         <v>337</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D327" s="2">
         <v>101</v>
@@ -9191,7 +9189,7 @@
         <v>338</v>
       </c>
       <c r="C328" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D328" s="2">
         <v>102</v>
@@ -9208,7 +9206,7 @@
         <v>339</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D329" s="2">
         <v>102</v>
@@ -9225,7 +9223,7 @@
         <v>340</v>
       </c>
       <c r="C330" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D330" s="2">
         <v>102</v>
@@ -9242,7 +9240,7 @@
         <v>341</v>
       </c>
       <c r="C331" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D331" s="2">
         <v>103</v>
@@ -9259,7 +9257,7 @@
         <v>342</v>
       </c>
       <c r="C332" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D332" s="2">
         <v>103</v>
@@ -9276,7 +9274,7 @@
         <v>343</v>
       </c>
       <c r="C333" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D333" s="2">
         <v>103</v>
@@ -9293,7 +9291,7 @@
         <v>344</v>
       </c>
       <c r="C334" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D334" s="2">
         <v>104</v>
@@ -9310,7 +9308,7 @@
         <v>345</v>
       </c>
       <c r="C335" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D335" s="2">
         <v>104</v>
@@ -9327,7 +9325,7 @@
         <v>346</v>
       </c>
       <c r="C336" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D336" s="2">
         <v>105</v>
@@ -9344,7 +9342,7 @@
         <v>347</v>
       </c>
       <c r="C337" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D337" s="2">
         <v>105</v>
@@ -9361,7 +9359,7 @@
         <v>348</v>
       </c>
       <c r="C338" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D338" s="2">
         <v>106</v>
@@ -9378,7 +9376,7 @@
         <v>349</v>
       </c>
       <c r="C339" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D339" s="2">
         <v>106</v>
@@ -9395,7 +9393,7 @@
         <v>350</v>
       </c>
       <c r="C340" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D340" s="2">
         <v>107</v>
@@ -9412,7 +9410,7 @@
         <v>351</v>
       </c>
       <c r="C341" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D341" s="2">
         <v>107</v>
@@ -9792,7 +9790,7 @@
         <v>374</v>
       </c>
       <c r="C364" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D364" s="2">
         <v>113</v>
@@ -9809,7 +9807,7 @@
         <v>375</v>
       </c>
       <c r="C365" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D365" s="2">
         <v>113</v>
@@ -9826,7 +9824,7 @@
         <v>376</v>
       </c>
       <c r="C366" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D366" s="2">
         <v>114</v>
@@ -9843,7 +9841,7 @@
         <v>377</v>
       </c>
       <c r="C367" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D367" s="2">
         <v>114</v>
@@ -9860,7 +9858,7 @@
         <v>378</v>
       </c>
       <c r="C368" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D368" s="2">
         <v>114</v>
@@ -9877,7 +9875,7 @@
         <v>379</v>
       </c>
       <c r="C369" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D369" s="2">
         <v>115</v>
@@ -9894,7 +9892,7 @@
         <v>380</v>
       </c>
       <c r="C370" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D370" s="2">
         <v>115</v>
@@ -9911,7 +9909,7 @@
         <v>381</v>
       </c>
       <c r="C371" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D371" s="2">
         <v>115</v>
@@ -9928,7 +9926,7 @@
         <v>382</v>
       </c>
       <c r="C372" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D372" s="2">
         <v>116</v>
@@ -9945,7 +9943,7 @@
         <v>383</v>
       </c>
       <c r="C373" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D373" s="2">
         <v>116</v>
@@ -9962,7 +9960,7 @@
         <v>384</v>
       </c>
       <c r="C374" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D374" s="2">
         <v>116</v>
@@ -9979,7 +9977,7 @@
         <v>385</v>
       </c>
       <c r="C375" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D375" s="2">
         <v>117</v>
@@ -9996,7 +9994,7 @@
         <v>386</v>
       </c>
       <c r="C376" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D376" s="2">
         <v>117</v>
@@ -10013,7 +10011,7 @@
         <v>387</v>
       </c>
       <c r="C377" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D377" s="2">
         <v>117</v>
@@ -10030,7 +10028,7 @@
         <v>388</v>
       </c>
       <c r="C378" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D378" s="2">
         <v>118</v>
@@ -10047,7 +10045,7 @@
         <v>389</v>
       </c>
       <c r="C379" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D379" s="2">
         <v>118</v>
@@ -10064,7 +10062,7 @@
         <v>390</v>
       </c>
       <c r="C380" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D380" s="2">
         <v>118</v>
@@ -10081,7 +10079,7 @@
         <v>391</v>
       </c>
       <c r="C381" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D381" s="2">
         <v>119</v>
@@ -10098,7 +10096,7 @@
         <v>392</v>
       </c>
       <c r="C382" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D382" s="2">
         <v>119</v>
@@ -10115,7 +10113,7 @@
         <v>393</v>
       </c>
       <c r="C383" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D383" s="2">
         <v>120</v>
@@ -10132,7 +10130,7 @@
         <v>394</v>
       </c>
       <c r="C384" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D384" s="2">
         <v>120</v>
@@ -10149,7 +10147,7 @@
         <v>395</v>
       </c>
       <c r="C385" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D385" s="2">
         <v>120</v>
@@ -10166,7 +10164,7 @@
         <v>396</v>
       </c>
       <c r="C386" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D386" s="2">
         <v>120</v>
@@ -10461,7 +10459,7 @@
         <v>414</v>
       </c>
       <c r="C404" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D404" s="2">
         <v>124</v>
@@ -10478,7 +10476,7 @@
         <v>415</v>
       </c>
       <c r="C405" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D405" s="2">
         <v>125</v>
@@ -10495,7 +10493,7 @@
         <v>416</v>
       </c>
       <c r="C406" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D406" s="2">
         <v>125</v>
@@ -10512,7 +10510,7 @@
         <v>417</v>
       </c>
       <c r="C407" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D407" s="2">
         <v>125</v>
@@ -10529,7 +10527,7 @@
         <v>418</v>
       </c>
       <c r="C408" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D408" s="2">
         <v>126</v>
@@ -10546,7 +10544,7 @@
         <v>419</v>
       </c>
       <c r="C409" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D409" s="2">
         <v>126</v>
@@ -10563,7 +10561,7 @@
         <v>420</v>
       </c>
       <c r="C410" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D410" s="2">
         <v>126</v>
@@ -10580,7 +10578,7 @@
         <v>421</v>
       </c>
       <c r="C411" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D411" s="2">
         <v>127</v>
@@ -10597,7 +10595,7 @@
         <v>422</v>
       </c>
       <c r="C412" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D412" s="2">
         <v>127</v>
@@ -10614,7 +10612,7 @@
         <v>423</v>
       </c>
       <c r="C413" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D413" s="2">
         <v>127</v>
@@ -10631,7 +10629,7 @@
         <v>424</v>
       </c>
       <c r="C414" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D414" s="2">
         <v>128</v>
@@ -10648,7 +10646,7 @@
         <v>425</v>
       </c>
       <c r="C415" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D415" s="2">
         <v>128</v>
@@ -10665,7 +10663,7 @@
         <v>426</v>
       </c>
       <c r="C416" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D416" s="2">
         <v>128</v>
@@ -10682,7 +10680,7 @@
         <v>427</v>
       </c>
       <c r="C417" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D417" s="2">
         <v>129</v>
@@ -10699,7 +10697,7 @@
         <v>428</v>
       </c>
       <c r="C418" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D418" s="2">
         <v>129</v>
@@ -10716,7 +10714,7 @@
         <v>429</v>
       </c>
       <c r="C419" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D419" s="2">
         <v>130</v>
@@ -10733,7 +10731,7 @@
         <v>430</v>
       </c>
       <c r="C420" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D420" s="2">
         <v>130</v>
@@ -10750,7 +10748,7 @@
         <v>431</v>
       </c>
       <c r="C421" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D421" s="2">
         <v>131</v>
@@ -10767,7 +10765,7 @@
         <v>432</v>
       </c>
       <c r="C422" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D422" s="2">
         <v>131</v>
@@ -10784,7 +10782,7 @@
         <v>433</v>
       </c>
       <c r="C423" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D423" s="2">
         <v>132</v>
@@ -10855,7 +10853,7 @@
         <v>434</v>
       </c>
       <c r="B428" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C428" s="2" t="s">
         <v>10</v>
@@ -11096,7 +11094,7 @@
         <v>451</v>
       </c>
       <c r="C442" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D442" s="2">
         <v>136</v>
@@ -11113,7 +11111,7 @@
         <v>452</v>
       </c>
       <c r="C443" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D443" s="2">
         <v>137</v>
@@ -11130,7 +11128,7 @@
         <v>453</v>
       </c>
       <c r="C444" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D444" s="2">
         <v>137</v>
@@ -11144,10 +11142,10 @@
         <v>434</v>
       </c>
       <c r="B445" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C445" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D445" s="2">
         <v>137</v>
@@ -11164,7 +11162,7 @@
         <v>454</v>
       </c>
       <c r="C446" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D446" s="2">
         <v>138</v>
@@ -11181,7 +11179,7 @@
         <v>455</v>
       </c>
       <c r="C447" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D447" s="2">
         <v>138</v>
@@ -11198,7 +11196,7 @@
         <v>456</v>
       </c>
       <c r="C448" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D448" s="2">
         <v>138</v>
@@ -11215,7 +11213,7 @@
         <v>457</v>
       </c>
       <c r="C449" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D449" s="2">
         <v>138</v>
@@ -11232,7 +11230,7 @@
         <v>458</v>
       </c>
       <c r="C450" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D450" s="2">
         <v>139</v>
@@ -11249,7 +11247,7 @@
         <v>459</v>
       </c>
       <c r="C451" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D451" s="2">
         <v>139</v>
@@ -11266,7 +11264,7 @@
         <v>460</v>
       </c>
       <c r="C452" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D452" s="2">
         <v>139</v>
@@ -11283,7 +11281,7 @@
         <v>461</v>
       </c>
       <c r="C453" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D453" s="2">
         <v>140</v>
@@ -11300,7 +11298,7 @@
         <v>462</v>
       </c>
       <c r="C454" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D454" s="2">
         <v>140</v>
@@ -11317,7 +11315,7 @@
         <v>463</v>
       </c>
       <c r="C455" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D455" s="2">
         <v>140</v>
@@ -11334,7 +11332,7 @@
         <v>464</v>
       </c>
       <c r="C456" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D456" s="2">
         <v>141</v>
@@ -11351,7 +11349,7 @@
         <v>465</v>
       </c>
       <c r="C457" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D457" s="2">
         <v>141</v>
@@ -11368,7 +11366,7 @@
         <v>466</v>
       </c>
       <c r="C458" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D458" s="2">
         <v>141</v>
@@ -11385,7 +11383,7 @@
         <v>467</v>
       </c>
       <c r="C459" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D459" s="2">
         <v>142</v>
@@ -11402,7 +11400,7 @@
         <v>468</v>
       </c>
       <c r="C460" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D460" s="2">
         <v>142</v>
@@ -11419,7 +11417,7 @@
         <v>469</v>
       </c>
       <c r="C461" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D461" s="2">
         <v>143</v>
@@ -11436,7 +11434,7 @@
         <v>470</v>
       </c>
       <c r="C462" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D462" s="2">
         <v>143</v>
@@ -11453,7 +11451,7 @@
         <v>471</v>
       </c>
       <c r="C463" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D463" s="2">
         <v>144</v>
@@ -11470,7 +11468,7 @@
         <v>472</v>
       </c>
       <c r="C464" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D464" s="2">
         <v>144</v>
@@ -11487,7 +11485,7 @@
         <v>473</v>
       </c>
       <c r="C465" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D465" s="2">
         <v>145</v>
@@ -11504,7 +11502,7 @@
         <v>474</v>
       </c>
       <c r="C466" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D466" s="2">
         <v>145</v>
@@ -11521,7 +11519,7 @@
         <v>475</v>
       </c>
       <c r="C467" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D467" s="2">
         <v>146</v>
@@ -11538,7 +11536,7 @@
         <v>476</v>
       </c>
       <c r="C468" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D468" s="2">
         <v>146</v>
@@ -11555,7 +11553,7 @@
         <v>477</v>
       </c>
       <c r="C469" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D469" s="2">
         <v>147</v>
@@ -11572,7 +11570,7 @@
         <v>288</v>
       </c>
       <c r="C470" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D470" s="2">
         <v>147</v>
@@ -11731,7 +11729,7 @@
         <v>487</v>
       </c>
       <c r="C480" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D480" s="2">
         <v>150</v>
@@ -11748,7 +11746,7 @@
         <v>488</v>
       </c>
       <c r="C481" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D481" s="2">
         <v>150</v>
@@ -11765,7 +11763,7 @@
         <v>489</v>
       </c>
       <c r="C482" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D482" s="2">
         <v>150</v>
@@ -11782,7 +11780,7 @@
         <v>490</v>
       </c>
       <c r="C483" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D483" s="2">
         <v>151</v>
@@ -11799,7 +11797,7 @@
         <v>491</v>
       </c>
       <c r="C484" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D484" s="2">
         <v>151</v>
@@ -11816,7 +11814,7 @@
         <v>492</v>
       </c>
       <c r="C485" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D485" s="2">
         <v>151</v>
@@ -11833,7 +11831,7 @@
         <v>493</v>
       </c>
       <c r="C486" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D486" s="2">
         <v>152</v>
@@ -11850,7 +11848,7 @@
         <v>494</v>
       </c>
       <c r="C487" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D487" s="2">
         <v>152</v>
@@ -11867,7 +11865,7 @@
         <v>495</v>
       </c>
       <c r="C488" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D488" s="2">
         <v>152</v>
@@ -11884,7 +11882,7 @@
         <v>496</v>
       </c>
       <c r="C489" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D489" s="2">
         <v>153</v>
@@ -11901,7 +11899,7 @@
         <v>497</v>
       </c>
       <c r="C490" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D490" s="2">
         <v>153</v>
@@ -11918,7 +11916,7 @@
         <v>498</v>
       </c>
       <c r="C491" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D491" s="2">
         <v>153</v>
@@ -11935,7 +11933,7 @@
         <v>499</v>
       </c>
       <c r="C492" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D492" s="2">
         <v>154</v>
@@ -11952,7 +11950,7 @@
         <v>500</v>
       </c>
       <c r="C493" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D493" s="2">
         <v>154</v>
@@ -11969,7 +11967,7 @@
         <v>501</v>
       </c>
       <c r="C494" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D494" s="2">
         <v>154</v>
@@ -11986,7 +11984,7 @@
         <v>502</v>
       </c>
       <c r="C495" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D495" s="2">
         <v>155</v>
@@ -12003,7 +12001,7 @@
         <v>503</v>
       </c>
       <c r="C496" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D496" s="2">
         <v>155</v>
@@ -12020,7 +12018,7 @@
         <v>504</v>
       </c>
       <c r="C497" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D497" s="2">
         <v>156</v>
@@ -12037,7 +12035,7 @@
         <v>505</v>
       </c>
       <c r="C498" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D498" s="2">
         <v>156</v>
@@ -12264,7 +12262,7 @@
         <v>519</v>
       </c>
       <c r="C512" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D512" s="2">
         <v>160</v>
@@ -12281,7 +12279,7 @@
         <v>520</v>
       </c>
       <c r="C513" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D513" s="2">
         <v>160</v>
@@ -12298,7 +12296,7 @@
         <v>521</v>
       </c>
       <c r="C514" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D514" s="2">
         <v>160</v>
@@ -12315,7 +12313,7 @@
         <v>522</v>
       </c>
       <c r="C515" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D515" s="2">
         <v>161</v>
@@ -12332,7 +12330,7 @@
         <v>523</v>
       </c>
       <c r="C516" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D516" s="2">
         <v>161</v>
@@ -12349,7 +12347,7 @@
         <v>524</v>
       </c>
       <c r="C517" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D517" s="2">
         <v>161</v>
@@ -12366,7 +12364,7 @@
         <v>525</v>
       </c>
       <c r="C518" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D518" s="2">
         <v>162</v>
@@ -12383,7 +12381,7 @@
         <v>526</v>
       </c>
       <c r="C519" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D519" s="2">
         <v>162</v>
@@ -12400,7 +12398,7 @@
         <v>527</v>
       </c>
       <c r="C520" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D520" s="2">
         <v>162</v>
@@ -12417,7 +12415,7 @@
         <v>528</v>
       </c>
       <c r="C521" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D521" s="2">
         <v>163</v>
@@ -12434,7 +12432,7 @@
         <v>529</v>
       </c>
       <c r="C522" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D522" s="2">
         <v>163</v>
@@ -12451,7 +12449,7 @@
         <v>530</v>
       </c>
       <c r="C523" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D523" s="2">
         <v>163</v>
@@ -12468,7 +12466,7 @@
         <v>531</v>
       </c>
       <c r="C524" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D524" s="2">
         <v>164</v>
@@ -12485,7 +12483,7 @@
         <v>532</v>
       </c>
       <c r="C525" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D525" s="2">
         <v>164</v>
@@ -12502,7 +12500,7 @@
         <v>533</v>
       </c>
       <c r="C526" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D526" s="2">
         <v>164</v>
@@ -12519,7 +12517,7 @@
         <v>534</v>
       </c>
       <c r="C527" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D527" s="2">
         <v>165</v>
@@ -12536,7 +12534,7 @@
         <v>535</v>
       </c>
       <c r="C528" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D528" s="2">
         <v>165</v>
@@ -12814,7 +12812,7 @@
         <v>552</v>
       </c>
       <c r="C545" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D545" s="2">
         <v>169</v>
@@ -12831,7 +12829,7 @@
         <v>553</v>
       </c>
       <c r="C546" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D546" s="2">
         <v>170</v>
@@ -12848,7 +12846,7 @@
         <v>554</v>
       </c>
       <c r="C547" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D547" s="2">
         <v>170</v>
@@ -12865,7 +12863,7 @@
         <v>555</v>
       </c>
       <c r="C548" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D548" s="2">
         <v>170</v>
@@ -12882,7 +12880,7 @@
         <v>556</v>
       </c>
       <c r="C549" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D549" s="2">
         <v>171</v>
@@ -12899,7 +12897,7 @@
         <v>557</v>
       </c>
       <c r="C550" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D550" s="2">
         <v>171</v>
@@ -12916,7 +12914,7 @@
         <v>558</v>
       </c>
       <c r="C551" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D551" s="2">
         <v>171</v>
@@ -12933,7 +12931,7 @@
         <v>559</v>
       </c>
       <c r="C552" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D552" s="2">
         <v>172</v>
@@ -12950,7 +12948,7 @@
         <v>560</v>
       </c>
       <c r="C553" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D553" s="2">
         <v>172</v>
@@ -12967,7 +12965,7 @@
         <v>561</v>
       </c>
       <c r="C554" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D554" s="2">
         <v>172</v>
@@ -12984,7 +12982,7 @@
         <v>562</v>
       </c>
       <c r="C555" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D555" s="2">
         <v>173</v>
@@ -13001,7 +12999,7 @@
         <v>563</v>
       </c>
       <c r="C556" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D556" s="2">
         <v>173</v>
@@ -13018,7 +13016,7 @@
         <v>564</v>
       </c>
       <c r="C557" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D557" s="2">
         <v>173</v>
@@ -13035,7 +13033,7 @@
         <v>565</v>
       </c>
       <c r="C558" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D558" s="2">
         <v>174</v>
@@ -13052,7 +13050,7 @@
         <v>566</v>
       </c>
       <c r="C559" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D559" s="2">
         <v>174</v>
@@ -13069,7 +13067,7 @@
         <v>567</v>
       </c>
       <c r="C560" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D560" s="2">
         <v>174</v>
@@ -13086,7 +13084,7 @@
         <v>568</v>
       </c>
       <c r="C561" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D561" s="2">
         <v>175</v>
@@ -13103,7 +13101,7 @@
         <v>569</v>
       </c>
       <c r="C562" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D562" s="2">
         <v>175</v>
@@ -13120,7 +13118,7 @@
         <v>570</v>
       </c>
       <c r="C563" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D563" s="2">
         <v>175</v>
@@ -13137,7 +13135,7 @@
         <v>571</v>
       </c>
       <c r="C564" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D564" s="2">
         <v>176</v>
@@ -13154,7 +13152,7 @@
         <v>572</v>
       </c>
       <c r="C565" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D565" s="2">
         <v>176</v>
@@ -13171,7 +13169,7 @@
         <v>573</v>
       </c>
       <c r="C566" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D566" s="2">
         <v>176</v>
@@ -13188,7 +13186,7 @@
         <v>574</v>
       </c>
       <c r="C567" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D567" s="2">
         <v>177</v>
@@ -13205,7 +13203,7 @@
         <v>575</v>
       </c>
       <c r="C568" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D568" s="2">
         <v>177</v>
@@ -13222,7 +13220,7 @@
         <v>576</v>
       </c>
       <c r="C569" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D569" s="2">
         <v>177</v>
@@ -13239,7 +13237,7 @@
         <v>577</v>
       </c>
       <c r="C570" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D570" s="2">
         <v>178</v>
@@ -13256,7 +13254,7 @@
         <v>578</v>
       </c>
       <c r="C571" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D571" s="2">
         <v>178</v>
@@ -13273,7 +13271,7 @@
         <v>579</v>
       </c>
       <c r="C572" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D572" s="2">
         <v>178</v>
@@ -13290,7 +13288,7 @@
         <v>580</v>
       </c>
       <c r="C573" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D573" s="2">
         <v>179</v>
@@ -13307,7 +13305,7 @@
         <v>581</v>
       </c>
       <c r="C574" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D574" s="2">
         <v>179</v>
@@ -13324,7 +13322,7 @@
         <v>577</v>
       </c>
       <c r="C575" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D575" s="2">
         <v>179</v>
@@ -13341,7 +13339,7 @@
         <v>582</v>
       </c>
       <c r="C576" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D576" s="2">
         <v>180</v>
@@ -13358,7 +13356,7 @@
         <v>583</v>
       </c>
       <c r="C577" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D577" s="2">
         <v>180</v>
@@ -13375,7 +13373,7 @@
         <v>584</v>
       </c>
       <c r="C578" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D578" s="2">
         <v>180</v>
@@ -13392,7 +13390,7 @@
         <v>585</v>
       </c>
       <c r="C579" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D579" s="2">
         <v>181</v>
@@ -13409,7 +13407,7 @@
         <v>586</v>
       </c>
       <c r="C580" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D580" s="2">
         <v>181</v>
@@ -13426,7 +13424,7 @@
         <v>587</v>
       </c>
       <c r="C581" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D581" s="2">
         <v>181</v>
@@ -13443,7 +13441,7 @@
         <v>588</v>
       </c>
       <c r="C582" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D582" s="2">
         <v>182</v>
@@ -13460,7 +13458,7 @@
         <v>589</v>
       </c>
       <c r="C583" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D583" s="2">
         <v>182</v>
@@ -13477,7 +13475,7 @@
         <v>590</v>
       </c>
       <c r="C584" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D584" s="2">
         <v>183</v>
@@ -13494,7 +13492,7 @@
         <v>591</v>
       </c>
       <c r="C585" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D585" s="2">
         <v>183</v>
@@ -13511,7 +13509,7 @@
         <v>592</v>
       </c>
       <c r="C586" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D586" s="2">
         <v>184</v>
@@ -13528,7 +13526,7 @@
         <v>593</v>
       </c>
       <c r="C587" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D587" s="2">
         <v>184</v>
@@ -13545,7 +13543,7 @@
         <v>594</v>
       </c>
       <c r="C588" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D588" s="2">
         <v>185</v>
@@ -13562,7 +13560,7 @@
         <v>595</v>
       </c>
       <c r="C589" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D589" s="2">
         <v>185</v>
@@ -13579,7 +13577,7 @@
         <v>596</v>
       </c>
       <c r="C590" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D590" s="2">
         <v>186</v>
@@ -13596,7 +13594,7 @@
         <v>597</v>
       </c>
       <c r="C591" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D591" s="2">
         <v>186</v>
@@ -13613,7 +13611,7 @@
         <v>598</v>
       </c>
       <c r="C592" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D592" s="2">
         <v>187</v>
@@ -13721,7 +13719,7 @@
         <v>605</v>
       </c>
       <c r="C599" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D599" s="2">
         <v>189</v>
@@ -13738,7 +13736,7 @@
         <v>606</v>
       </c>
       <c r="C600" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D600" s="2">
         <v>189</v>
@@ -13755,7 +13753,7 @@
         <v>607</v>
       </c>
       <c r="C601" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D601" s="2">
         <v>190</v>
@@ -13772,7 +13770,7 @@
         <v>608</v>
       </c>
       <c r="C602" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D602" s="2">
         <v>190</v>
@@ -13789,7 +13787,7 @@
         <v>609</v>
       </c>
       <c r="C603" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D603" s="2">
         <v>190</v>
@@ -13806,7 +13804,7 @@
         <v>610</v>
       </c>
       <c r="C604" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D604" s="2">
         <v>191</v>
@@ -13823,7 +13821,7 @@
         <v>611</v>
       </c>
       <c r="C605" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D605" s="2">
         <v>191</v>
@@ -13840,7 +13838,7 @@
         <v>612</v>
       </c>
       <c r="C606" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D606" s="2">
         <v>191</v>
@@ -13857,7 +13855,7 @@
         <v>613</v>
       </c>
       <c r="C607" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D607" s="2">
         <v>192</v>
@@ -13874,7 +13872,7 @@
         <v>614</v>
       </c>
       <c r="C608" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D608" s="2">
         <v>192</v>
@@ -13891,7 +13889,7 @@
         <v>615</v>
       </c>
       <c r="C609" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D609" s="2">
         <v>192</v>
@@ -13908,7 +13906,7 @@
         <v>616</v>
       </c>
       <c r="C610" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D610" s="2">
         <v>193</v>
@@ -13925,7 +13923,7 @@
         <v>617</v>
       </c>
       <c r="C611" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D611" s="2">
         <v>193</v>
@@ -13942,7 +13940,7 @@
         <v>618</v>
       </c>
       <c r="C612" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D612" s="2">
         <v>193</v>
@@ -13959,7 +13957,7 @@
         <v>619</v>
       </c>
       <c r="C613" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D613" s="2">
         <v>194</v>
@@ -13976,7 +13974,7 @@
         <v>620</v>
       </c>
       <c r="C614" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D614" s="2">
         <v>194</v>
@@ -13993,7 +13991,7 @@
         <v>621</v>
       </c>
       <c r="C615" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D615" s="2">
         <v>194</v>
@@ -14010,7 +14008,7 @@
         <v>622</v>
       </c>
       <c r="C616" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D616" s="2">
         <v>195</v>
@@ -14027,7 +14025,7 @@
         <v>623</v>
       </c>
       <c r="C617" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D617" s="2">
         <v>195</v>
@@ -14044,7 +14042,7 @@
         <v>624</v>
       </c>
       <c r="C618" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D618" s="2">
         <v>195</v>
@@ -14061,7 +14059,7 @@
         <v>625</v>
       </c>
       <c r="C619" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D619" s="2">
         <v>196</v>
@@ -14078,7 +14076,7 @@
         <v>626</v>
       </c>
       <c r="C620" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D620" s="2">
         <v>196</v>
@@ -14095,7 +14093,7 @@
         <v>627</v>
       </c>
       <c r="C621" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D621" s="2">
         <v>196</v>
@@ -14112,7 +14110,7 @@
         <v>628</v>
       </c>
       <c r="C622" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D622" s="2">
         <v>197</v>
@@ -14129,7 +14127,7 @@
         <v>629</v>
       </c>
       <c r="C623" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D623" s="2">
         <v>197</v>
@@ -14146,7 +14144,7 @@
         <v>630</v>
       </c>
       <c r="C624" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D624" s="2">
         <v>197</v>
@@ -14163,7 +14161,7 @@
         <v>631</v>
       </c>
       <c r="C625" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D625" s="2">
         <v>198</v>
@@ -14180,7 +14178,7 @@
         <v>632</v>
       </c>
       <c r="C626" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D626" s="2">
         <v>198</v>
@@ -14197,7 +14195,7 @@
         <v>633</v>
       </c>
       <c r="C627" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D627" s="2">
         <v>198</v>
@@ -14214,7 +14212,7 @@
         <v>634</v>
       </c>
       <c r="C628" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D628" s="2">
         <v>199</v>
@@ -14231,7 +14229,7 @@
         <v>635</v>
       </c>
       <c r="C629" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D629" s="2">
         <v>199</v>
@@ -14248,7 +14246,7 @@
         <v>636</v>
       </c>
       <c r="C630" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D630" s="2">
         <v>199</v>
@@ -14265,7 +14263,7 @@
         <v>637</v>
       </c>
       <c r="C631" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D631" s="2">
         <v>200</v>
@@ -14282,7 +14280,7 @@
         <v>638</v>
       </c>
       <c r="C632" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D632" s="2">
         <v>200</v>
@@ -14299,7 +14297,7 @@
         <v>639</v>
       </c>
       <c r="C633" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D633" s="2">
         <v>200</v>
@@ -14316,7 +14314,7 @@
         <v>640</v>
       </c>
       <c r="C634" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D634" s="2">
         <v>201</v>
@@ -14333,7 +14331,7 @@
         <v>641</v>
       </c>
       <c r="C635" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D635" s="2">
         <v>201</v>
@@ -14350,7 +14348,7 @@
         <v>642</v>
       </c>
       <c r="C636" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D636" s="2">
         <v>201</v>
@@ -14367,7 +14365,7 @@
         <v>643</v>
       </c>
       <c r="C637" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D637" s="2">
         <v>202</v>
@@ -14384,7 +14382,7 @@
         <v>644</v>
       </c>
       <c r="C638" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D638" s="2">
         <v>202</v>
@@ -14401,7 +14399,7 @@
         <v>645</v>
       </c>
       <c r="C639" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D639" s="2">
         <v>202</v>
@@ -14418,7 +14416,7 @@
         <v>646</v>
       </c>
       <c r="C640" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D640" s="2">
         <v>203</v>
@@ -14435,7 +14433,7 @@
         <v>647</v>
       </c>
       <c r="C641" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D641" s="2">
         <v>203</v>
@@ -14452,7 +14450,7 @@
         <v>648</v>
       </c>
       <c r="C642" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D642" s="2">
         <v>203</v>
@@ -14469,7 +14467,7 @@
         <v>649</v>
       </c>
       <c r="C643" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D643" s="2">
         <v>204</v>
@@ -14486,7 +14484,7 @@
         <v>650</v>
       </c>
       <c r="C644" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D644" s="2">
         <v>204</v>
@@ -14503,7 +14501,7 @@
         <v>651</v>
       </c>
       <c r="C645" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D645" s="2">
         <v>204</v>
@@ -14520,7 +14518,7 @@
         <v>652</v>
       </c>
       <c r="C646" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D646" s="2">
         <v>205</v>
@@ -14537,7 +14535,7 @@
         <v>653</v>
       </c>
       <c r="C647" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D647" s="2">
         <v>205</v>
@@ -14554,7 +14552,7 @@
         <v>654</v>
       </c>
       <c r="C648" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D648" s="2">
         <v>205</v>
@@ -14571,7 +14569,7 @@
         <v>655</v>
       </c>
       <c r="C649" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D649" s="2">
         <v>206</v>
@@ -14588,7 +14586,7 @@
         <v>656</v>
       </c>
       <c r="C650" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D650" s="2">
         <v>206</v>
@@ -14605,7 +14603,7 @@
         <v>657</v>
       </c>
       <c r="C651" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D651" s="2">
         <v>206</v>
@@ -14622,7 +14620,7 @@
         <v>658</v>
       </c>
       <c r="C652" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D652" s="2">
         <v>207</v>
@@ -14639,7 +14637,7 @@
         <v>659</v>
       </c>
       <c r="C653" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D653" s="2">
         <v>207</v>
@@ -14656,7 +14654,7 @@
         <v>660</v>
       </c>
       <c r="C654" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D654" s="2">
         <v>207</v>
@@ -14673,7 +14671,7 @@
         <v>661</v>
       </c>
       <c r="C655" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D655" s="2">
         <v>208</v>
@@ -14690,7 +14688,7 @@
         <v>662</v>
       </c>
       <c r="C656" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D656" s="2">
         <v>208</v>
@@ -14707,7 +14705,7 @@
         <v>663</v>
       </c>
       <c r="C657" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D657" s="2">
         <v>208</v>
@@ -14724,7 +14722,7 @@
         <v>664</v>
       </c>
       <c r="C658" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D658" s="2">
         <v>209</v>
@@ -14741,7 +14739,7 @@
         <v>665</v>
       </c>
       <c r="C659" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D659" s="2">
         <v>209</v>
@@ -14758,7 +14756,7 @@
         <v>666</v>
       </c>
       <c r="C660" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D660" s="2">
         <v>209</v>
@@ -14775,7 +14773,7 @@
         <v>667</v>
       </c>
       <c r="C661" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D661" s="2">
         <v>210</v>
@@ -14792,7 +14790,7 @@
         <v>668</v>
       </c>
       <c r="C662" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D662" s="2">
         <v>210</v>
@@ -14809,7 +14807,7 @@
         <v>669</v>
       </c>
       <c r="C663" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D663" s="2">
         <v>210</v>
@@ -14826,7 +14824,7 @@
         <v>670</v>
       </c>
       <c r="C664" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D664" s="2">
         <v>211</v>
@@ -14843,7 +14841,7 @@
         <v>671</v>
       </c>
       <c r="C665" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D665" s="2">
         <v>211</v>
@@ -14860,7 +14858,7 @@
         <v>672</v>
       </c>
       <c r="C666" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D666" s="2">
         <v>211</v>
@@ -14877,7 +14875,7 @@
         <v>673</v>
       </c>
       <c r="C667" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D667" s="2">
         <v>212</v>
@@ -14894,7 +14892,7 @@
         <v>674</v>
       </c>
       <c r="C668" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D668" s="2">
         <v>212</v>
@@ -14911,7 +14909,7 @@
         <v>675</v>
       </c>
       <c r="C669" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D669" s="2">
         <v>212</v>
@@ -14928,7 +14926,7 @@
         <v>676</v>
       </c>
       <c r="C670" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D670" s="2">
         <v>213</v>
@@ -14945,7 +14943,7 @@
         <v>677</v>
       </c>
       <c r="C671" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D671" s="2">
         <v>213</v>
@@ -14962,7 +14960,7 @@
         <v>678</v>
       </c>
       <c r="C672" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D672" s="2">
         <v>213</v>
@@ -14979,7 +14977,7 @@
         <v>679</v>
       </c>
       <c r="C673" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D673" s="2">
         <v>214</v>
@@ -14996,7 +14994,7 @@
         <v>680</v>
       </c>
       <c r="C674" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D674" s="2">
         <v>214</v>
@@ -15013,7 +15011,7 @@
         <v>681</v>
       </c>
       <c r="C675" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D675" s="2">
         <v>214</v>
@@ -15030,7 +15028,7 @@
         <v>682</v>
       </c>
       <c r="C676" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D676" s="2">
         <v>215</v>
@@ -15047,7 +15045,7 @@
         <v>683</v>
       </c>
       <c r="C677" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D677" s="2">
         <v>215</v>
@@ -15064,7 +15062,7 @@
         <v>684</v>
       </c>
       <c r="C678" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D678" s="2">
         <v>215</v>
@@ -15081,7 +15079,7 @@
         <v>685</v>
       </c>
       <c r="C679" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D679" s="2">
         <v>216</v>
@@ -15098,7 +15096,7 @@
         <v>686</v>
       </c>
       <c r="C680" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D680" s="2">
         <v>216</v>
@@ -15115,7 +15113,7 @@
         <v>687</v>
       </c>
       <c r="C681" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D681" s="2">
         <v>216</v>
@@ -15132,7 +15130,7 @@
         <v>688</v>
       </c>
       <c r="C682" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D682" s="2">
         <v>217</v>
@@ -15149,7 +15147,7 @@
         <v>689</v>
       </c>
       <c r="C683" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D683" s="2">
         <v>217</v>
@@ -15166,7 +15164,7 @@
         <v>690</v>
       </c>
       <c r="C684" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D684" s="2">
         <v>217</v>
@@ -15183,7 +15181,7 @@
         <v>691</v>
       </c>
       <c r="C685" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D685" s="2">
         <v>218</v>
@@ -15200,7 +15198,7 @@
         <v>692</v>
       </c>
       <c r="C686" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D686" s="2">
         <v>218</v>
@@ -15217,7 +15215,7 @@
         <v>693</v>
       </c>
       <c r="C687" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D687" s="2">
         <v>218</v>
@@ -15234,7 +15232,7 @@
         <v>694</v>
       </c>
       <c r="C688" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D688" s="2">
         <v>219</v>
@@ -15251,7 +15249,7 @@
         <v>695</v>
       </c>
       <c r="C689" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D689" s="2">
         <v>219</v>
@@ -15268,7 +15266,7 @@
         <v>696</v>
       </c>
       <c r="C690" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D690" s="2">
         <v>219</v>
@@ -15285,7 +15283,7 @@
         <v>697</v>
       </c>
       <c r="C691" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D691" s="2">
         <v>220</v>
@@ -15302,7 +15300,7 @@
         <v>698</v>
       </c>
       <c r="C692" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D692" s="2">
         <v>220</v>
@@ -15319,7 +15317,7 @@
         <v>699</v>
       </c>
       <c r="C693" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D693" s="2">
         <v>220</v>
@@ -15336,7 +15334,7 @@
         <v>700</v>
       </c>
       <c r="C694" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D694" s="2">
         <v>221</v>
@@ -15353,7 +15351,7 @@
         <v>701</v>
       </c>
       <c r="C695" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D695" s="2">
         <v>221</v>
@@ -15370,7 +15368,7 @@
         <v>702</v>
       </c>
       <c r="C696" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D696" s="2">
         <v>221</v>
@@ -15387,7 +15385,7 @@
         <v>703</v>
       </c>
       <c r="C697" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D697" s="2">
         <v>222</v>
@@ -15404,7 +15402,7 @@
         <v>704</v>
       </c>
       <c r="C698" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D698" s="2">
         <v>222</v>
@@ -15421,7 +15419,7 @@
         <v>705</v>
       </c>
       <c r="C699" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D699" s="2">
         <v>223</v>
@@ -15438,7 +15436,7 @@
         <v>706</v>
       </c>
       <c r="C700" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D700" s="2">
         <v>223</v>
@@ -15455,7 +15453,7 @@
         <v>707</v>
       </c>
       <c r="C701" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D701" s="2">
         <v>224</v>
@@ -15472,7 +15470,7 @@
         <v>708</v>
       </c>
       <c r="C702" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D702" s="2">
         <v>224</v>
@@ -15489,7 +15487,7 @@
         <v>709</v>
       </c>
       <c r="C703" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D703" s="2">
         <v>225</v>
@@ -15506,7 +15504,7 @@
         <v>710</v>
       </c>
       <c r="C704" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D704" s="2">
         <v>225</v>
@@ -15523,7 +15521,7 @@
         <v>711</v>
       </c>
       <c r="C705" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D705" s="2">
         <v>226</v>
@@ -15540,7 +15538,7 @@
         <v>712</v>
       </c>
       <c r="C706" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D706" s="2">
         <v>227</v>
@@ -15557,7 +15555,7 @@
         <v>713</v>
       </c>
       <c r="C707" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D707" s="2">
         <v>227</v>
@@ -15574,7 +15572,7 @@
         <v>714</v>
       </c>
       <c r="C708" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D708" s="2">
         <v>228</v>
@@ -15591,7 +15589,7 @@
         <v>715</v>
       </c>
       <c r="C709" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D709" s="2">
         <v>228</v>
@@ -15608,7 +15606,7 @@
         <v>716</v>
       </c>
       <c r="C710" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D710" s="2">
         <v>229</v>
@@ -15625,7 +15623,7 @@
         <v>717</v>
       </c>
       <c r="C711" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D711" s="2">
         <v>229</v>
@@ -15642,7 +15640,7 @@
         <v>718</v>
       </c>
       <c r="C712" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D712" s="2">
         <v>230</v>
@@ -15659,7 +15657,7 @@
         <v>719</v>
       </c>
       <c r="C713" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D713" s="2">
         <v>230</v>
@@ -15676,7 +15674,7 @@
         <v>720</v>
       </c>
       <c r="C714" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D714" s="2">
         <v>231</v>
@@ -15693,7 +15691,7 @@
         <v>721</v>
       </c>
       <c r="C715" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D715" s="2">
         <v>231</v>
@@ -15710,7 +15708,7 @@
         <v>722</v>
       </c>
       <c r="C716" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D716" s="2">
         <v>232</v>
@@ -15766,7 +15764,7 @@
         <v>726</v>
       </c>
       <c r="C720" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D720" s="2">
         <v>233</v>
@@ -15783,7 +15781,7 @@
         <v>727</v>
       </c>
       <c r="C721" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D721" s="2">
         <v>233</v>
@@ -15800,7 +15798,7 @@
         <v>728</v>
       </c>
       <c r="C722" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D722" s="2">
         <v>234</v>
@@ -15817,7 +15815,7 @@
         <v>729</v>
       </c>
       <c r="C723" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D723" s="2">
         <v>234</v>
@@ -15834,7 +15832,7 @@
         <v>730</v>
       </c>
       <c r="C724" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D724" s="2">
         <v>234</v>
@@ -15851,7 +15849,7 @@
         <v>731</v>
       </c>
       <c r="C725" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D725" s="2">
         <v>235</v>
@@ -15868,7 +15866,7 @@
         <v>732</v>
       </c>
       <c r="C726" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D726" s="2">
         <v>235</v>
@@ -15907,7 +15905,7 @@
         <v>735</v>
       </c>
       <c r="C729" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D729" s="2">
         <v>236</v>
@@ -15924,7 +15922,7 @@
         <v>736</v>
       </c>
       <c r="C730" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D730" s="2">
         <v>236</v>
@@ -15941,7 +15939,7 @@
         <v>737</v>
       </c>
       <c r="C731" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D731" s="2">
         <v>236</v>
@@ -15958,7 +15956,7 @@
         <v>738</v>
       </c>
       <c r="C732" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D732" s="2">
         <v>237</v>
@@ -15975,7 +15973,7 @@
         <v>739</v>
       </c>
       <c r="C733" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D733" s="2">
         <v>237</v>
@@ -15992,7 +15990,7 @@
         <v>740</v>
       </c>
       <c r="C734" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D734" s="2">
         <v>237</v>
@@ -16009,7 +16007,7 @@
         <v>741</v>
       </c>
       <c r="C735" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D735" s="2">
         <v>238</v>
@@ -16026,7 +16024,7 @@
         <v>742</v>
       </c>
       <c r="C736" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D736" s="2">
         <v>238</v>
@@ -16043,7 +16041,7 @@
         <v>743</v>
       </c>
       <c r="C737" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D737" s="2">
         <v>238</v>
@@ -16060,7 +16058,7 @@
         <v>744</v>
       </c>
       <c r="C738" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D738" s="2">
         <v>239</v>
@@ -16077,7 +16075,7 @@
         <v>745</v>
       </c>
       <c r="C739" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D739" s="2">
         <v>239</v>
@@ -16094,7 +16092,7 @@
         <v>746</v>
       </c>
       <c r="C740" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D740" s="2">
         <v>240</v>
@@ -16111,7 +16109,7 @@
         <v>747</v>
       </c>
       <c r="C741" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D741" s="2">
         <v>240</v>
@@ -16133,7 +16131,7 @@
         <v>749</v>
       </c>
       <c r="C743" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D743" s="2">
         <v>241</v>
@@ -16150,7 +16148,7 @@
         <v>750</v>
       </c>
       <c r="C744" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D744" s="2">
         <v>241</v>
@@ -16167,7 +16165,7 @@
         <v>751</v>
       </c>
       <c r="C745" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D745" s="2">
         <v>242</v>
@@ -16184,7 +16182,7 @@
         <v>752</v>
       </c>
       <c r="C746" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D746" s="2">
         <v>242</v>

--- a/Coder Army Sheet.xlsx
+++ b/Coder Army Sheet.xlsx
@@ -3687,8 +3687,8 @@
   <sheetPr/>
   <dimension ref="A1:F746"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A381" workbookViewId="0">
+      <selection activeCell="E394" sqref="E394"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5462962962963" defaultRowHeight="13.2" outlineLevelCol="5"/>

--- a/Coder Army Sheet.xlsx
+++ b/Coder Army Sheet.xlsx
@@ -3687,8 +3687,8 @@
   <sheetPr/>
   <dimension ref="A1:F746"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A381" workbookViewId="0">
-      <selection activeCell="E394" sqref="E394"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5462962962963" defaultRowHeight="13.2" outlineLevelCol="5"/>
@@ -4151,7 +4151,7 @@
         <v>7</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" ht="15.6" spans="1:5">

--- a/Coder Army Sheet.xlsx
+++ b/Coder Army Sheet.xlsx
@@ -3687,8 +3687,8 @@
   <sheetPr/>
   <dimension ref="A1:F746"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A675" workbookViewId="0">
+      <selection activeCell="E690" sqref="E690"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5462962962963" defaultRowHeight="13.2" outlineLevelCol="5"/>
@@ -15255,7 +15255,7 @@
         <v>219</v>
       </c>
       <c r="E689" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="690" ht="15.6" spans="1:5">
@@ -15272,7 +15272,7 @@
         <v>219</v>
       </c>
       <c r="E690" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="691" ht="15.6" spans="1:5">

--- a/Coder Army Sheet.xlsx
+++ b/Coder Army Sheet.xlsx
@@ -3687,8 +3687,8 @@
   <sheetPr/>
   <dimension ref="A1:F746"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A675" workbookViewId="0">
-      <selection activeCell="E690" sqref="E690"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A381" workbookViewId="0">
+      <selection activeCell="B392" sqref="B392"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5462962962963" defaultRowHeight="13.2" outlineLevelCol="5"/>
@@ -4271,7 +4271,7 @@
         <v>8</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" ht="15.6" spans="1:5">
@@ -10210,7 +10210,7 @@
         <v>121</v>
       </c>
       <c r="E389" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="390" ht="15.6" spans="1:5">
@@ -10879,7 +10879,7 @@
         <v>133</v>
       </c>
       <c r="E429" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="430" ht="15.6" spans="1:5">

--- a/Coder Army Sheet.xlsx
+++ b/Coder Army Sheet.xlsx
@@ -3687,8 +3687,8 @@
   <sheetPr/>
   <dimension ref="A1:F746"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A381" workbookViewId="0">
-      <selection activeCell="B392" sqref="B392"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A463" workbookViewId="0">
+      <selection activeCell="B475" sqref="B475"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5462962962963" defaultRowHeight="13.2" outlineLevelCol="5"/>
@@ -4686,7 +4686,7 @@
         <v>17</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="61" ht="15.6" spans="1:5">
@@ -8151,7 +8151,7 @@
         <v>83</v>
       </c>
       <c r="E266" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="267" ht="15.6" spans="1:5">

--- a/Coder Army Sheet.xlsx
+++ b/Coder Army Sheet.xlsx
@@ -3687,8 +3687,8 @@
   <sheetPr/>
   <dimension ref="A1:F746"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A463" workbookViewId="0">
-      <selection activeCell="B475" sqref="B475"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5462962962963" defaultRowHeight="13.2" outlineLevelCol="5"/>
@@ -4185,7 +4185,7 @@
         <v>7</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" ht="15.6" spans="1:5">

--- a/Coder Army Sheet.xlsx
+++ b/Coder Army Sheet.xlsx
@@ -3687,8 +3687,8 @@
   <sheetPr/>
   <dimension ref="A1:F746"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="E69" sqref="E69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5462962962963" defaultRowHeight="13.2" outlineLevelCol="5"/>
@@ -4839,7 +4839,7 @@
         <v>20</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="70" ht="15.6" spans="1:5">
@@ -4873,7 +4873,7 @@
         <v>21</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="72" ht="15.6" spans="1:5">

--- a/Coder Army Sheet.xlsx
+++ b/Coder Army Sheet.xlsx
@@ -3688,7 +3688,7 @@
   <dimension ref="A1:F746"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="E69" sqref="E69"/>
+      <selection activeCell="E70" sqref="E70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5462962962963" defaultRowHeight="13.2" outlineLevelCol="5"/>
@@ -4856,7 +4856,7 @@
         <v>20</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="71" ht="15.6" spans="1:5">

--- a/Coder Army Sheet.xlsx
+++ b/Coder Army Sheet.xlsx
@@ -4,12 +4,25 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9024" tabRatio="500"/>
+    <workbookView windowWidth="23040" windowHeight="9000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -2278,7 +2291,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
@@ -3687,8 +3700,8 @@
   <sheetPr/>
   <dimension ref="A1:F746"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="E70" sqref="E70"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A257" workbookViewId="0">
+      <selection activeCell="E277" sqref="E277"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5462962962963" defaultRowHeight="13.2" outlineLevelCol="5"/>
@@ -8338,7 +8351,7 @@
         <v>87</v>
       </c>
       <c r="E277" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="278" ht="15.6" spans="1:5">

--- a/Coder Army Sheet.xlsx
+++ b/Coder Army Sheet.xlsx
@@ -3700,8 +3700,8 @@
   <sheetPr/>
   <dimension ref="A1:F746"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A257" workbookViewId="0">
-      <selection activeCell="E277" sqref="E277"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5462962962963" defaultRowHeight="13.2" outlineLevelCol="5"/>
@@ -5073,7 +5073,7 @@
         <v>25</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="83" ht="15.6" spans="1:5">

--- a/Coder Army Sheet.xlsx
+++ b/Coder Army Sheet.xlsx
@@ -3700,8 +3700,8 @@
   <sheetPr/>
   <dimension ref="A1:F746"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="B82" sqref="B82"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5462962962963" defaultRowHeight="13.2" outlineLevelCol="5"/>
@@ -5090,7 +5090,7 @@
         <v>25</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="84" ht="15.6" spans="1:5">

--- a/Coder Army Sheet.xlsx
+++ b/Coder Army Sheet.xlsx
@@ -3700,8 +3700,8 @@
   <sheetPr/>
   <dimension ref="A1:F746"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="B79" sqref="B79"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A473" workbookViewId="0">
+      <selection activeCell="B478" sqref="B478"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5462962962963" defaultRowHeight="13.2" outlineLevelCol="5"/>
@@ -11697,7 +11697,7 @@
         <v>149</v>
       </c>
       <c r="E477" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="478" ht="15.6" spans="1:5">
@@ -11952,7 +11952,7 @@
         <v>154</v>
       </c>
       <c r="E492" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="493" ht="15.6" spans="1:5">

--- a/Coder Army Sheet.xlsx
+++ b/Coder Army Sheet.xlsx
@@ -3700,8 +3700,8 @@
   <sheetPr/>
   <dimension ref="A1:F746"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A473" workbookViewId="0">
-      <selection activeCell="B478" sqref="B478"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A271" workbookViewId="0">
+      <selection activeCell="C280" sqref="C280"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5462962962963" defaultRowHeight="13.2" outlineLevelCol="5"/>
@@ -4181,7 +4181,7 @@
         <v>7</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" ht="15.6" spans="1:5">
@@ -8385,7 +8385,7 @@
         <v>88</v>
       </c>
       <c r="E279" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="280" ht="15.6" spans="1:5">

--- a/Coder Army Sheet.xlsx
+++ b/Coder Army Sheet.xlsx
@@ -3700,8 +3700,8 @@
   <sheetPr/>
   <dimension ref="A1:F746"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A271" workbookViewId="0">
-      <selection activeCell="C280" sqref="C280"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A291" workbookViewId="0">
+      <selection activeCell="E308" sqref="E308"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5462962962963" defaultRowHeight="13.2" outlineLevelCol="5"/>
@@ -5777,7 +5777,7 @@
         <v>37</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="125" ht="15.6" spans="1:5">
@@ -8868,7 +8868,7 @@
         <v>95</v>
       </c>
       <c r="E308" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="309" ht="15.6" spans="1:5">

--- a/Coder Army Sheet.xlsx
+++ b/Coder Army Sheet.xlsx
@@ -3700,8 +3700,8 @@
   <sheetPr/>
   <dimension ref="A1:F746"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A291" workbookViewId="0">
-      <selection activeCell="E308" sqref="E308"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A311" workbookViewId="0">
+      <selection activeCell="B330" sqref="B330"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5462962962963" defaultRowHeight="13.2" outlineLevelCol="5"/>
@@ -8902,7 +8902,7 @@
         <v>96</v>
       </c>
       <c r="E310" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="311" ht="15.6" spans="1:5">
@@ -9242,7 +9242,7 @@
         <v>102</v>
       </c>
       <c r="E330" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="331" ht="15.6" spans="1:5">

--- a/Coder Army Sheet.xlsx
+++ b/Coder Army Sheet.xlsx
@@ -3700,8 +3700,8 @@
   <sheetPr/>
   <dimension ref="A1:F746"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A311" workbookViewId="0">
-      <selection activeCell="B330" sqref="B330"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A355" workbookViewId="0">
+      <selection activeCell="E361" sqref="E361"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5462962962963" defaultRowHeight="13.2" outlineLevelCol="5"/>
@@ -9758,7 +9758,7 @@
         <v>112</v>
       </c>
       <c r="E361" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="362" ht="15.6" spans="1:5">
@@ -9996,7 +9996,7 @@
         <v>117</v>
       </c>
       <c r="E375" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="376" ht="15.6" spans="1:5">
@@ -10064,7 +10064,7 @@
         <v>118</v>
       </c>
       <c r="E379" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="380" ht="15.6" spans="1:5">
